--- a/doc/01. 프로젝트 설계/Server 프로토콜.xlsx
+++ b/doc/01. 프로젝트 설계/Server 프로토콜.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\project 3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\카카오톡 받은 파일\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -799,19 +799,19 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>데드픽셀</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>핫픽셀</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>스턱픽셀</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>정상</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>데드픽셀</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>핫픽셀</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>스턱픽셀</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1266,9 +1266,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1280,21 +1277,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1316,6 +1298,24 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1377,7 +1377,7 @@
         <xdr:cNvPr id="3" name="직사각형 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1535,7 +1535,7 @@
         <xdr:cNvPr id="4" name="그림 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000004000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1584,7 +1584,7 @@
         <xdr:cNvPr id="3" name="직사각형 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1657,7 +1657,7 @@
         <xdr:cNvPr id="8" name="직선 화살표 연결선 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000008000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1713,7 +1713,7 @@
         <xdr:cNvPr id="22" name="직사각형 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000016000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000016000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1786,7 +1786,7 @@
         <xdr:cNvPr id="42" name="직선 화살표 연결선 41">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00002A000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00002A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1839,7 +1839,7 @@
         <xdr:cNvPr id="47" name="직선 화살표 연결선 46">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00002F000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00002F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1876,23 +1876,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>15240</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>15240</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>836295</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>64770</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>7620</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>198120</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>828675</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>156210</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="60" name="직사각형 59">
+        <xdr:cNvPr id="64" name="직사각형 63">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00003C000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000040000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1900,88 +1900,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7391400" y="7307580"/>
-          <a:ext cx="1333500" cy="403860"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent4">
-            <a:lumMod val="20000"/>
-            <a:lumOff val="80000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1000">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>제품을 내려 놓는다</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1000">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>.</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>26670</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>55245</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>146685</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="64" name="직사각형 63">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000040000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9246870" y="9484995"/>
+          <a:off x="9218295" y="9494520"/>
           <a:ext cx="1668780" cy="300990"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2036,22 +1955,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>13335</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>91440</xdr:rowOff>
+      <xdr:colOff>3810</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>34290</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>5715</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>834390</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="66" name="직사각형 65">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000042000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000042000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2059,7 +1978,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4204335" y="7216140"/>
+          <a:off x="4194810" y="6530340"/>
           <a:ext cx="1668780" cy="689610"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2125,22 +2044,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>34290</xdr:colOff>
+      <xdr:colOff>9525</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>45720</xdr:rowOff>
+      <xdr:rowOff>169545</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>26670</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>123826</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>838199</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="157" name="직사각형 156">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00009D000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00009D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2148,8 +2067,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7578090" y="4236720"/>
-          <a:ext cx="1363980" cy="497206"/>
+          <a:off x="9229725" y="4360545"/>
+          <a:ext cx="1666874" cy="497205"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2255,7 +2174,7 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>15240</xdr:colOff>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>40</xdr:row>
       <xdr:rowOff>167640</xdr:rowOff>
     </xdr:from>
@@ -2270,7 +2189,7 @@
         <xdr:cNvPr id="158" name="직사각형 157">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00009E000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00009E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2278,8 +2197,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7391400" y="10111740"/>
-          <a:ext cx="1333500" cy="495300"/>
+          <a:off x="9220200" y="8549640"/>
+          <a:ext cx="1684020" cy="461010"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2340,87 +2259,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>7620</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>175260</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>7620</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="174" name="직사각형 173">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-0000AE000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7383780" y="7909560"/>
-          <a:ext cx="1333500" cy="495300"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent4">
-            <a:lumMod val="20000"/>
-            <a:lumOff val="80000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1000">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>물품을 들고 출고 위치로 간다</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1000">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>.</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>10</xdr:row>
@@ -2437,7 +2275,7 @@
         <xdr:cNvPr id="73" name="직선 화살표 연결선 72">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000008000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2492,7 +2330,7 @@
         <xdr:cNvPr id="74" name="직사각형 73">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000016000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000016000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2581,7 +2419,7 @@
         <xdr:cNvPr id="79" name="직사각형 78">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000016000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000016000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2676,22 +2514,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>459105</xdr:colOff>
+      <xdr:colOff>544830</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>64770</xdr:rowOff>
+      <xdr:rowOff>55245</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>219075</xdr:colOff>
+      <xdr:colOff>304800</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="81" name="TextBox 80">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000095000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000095000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2699,8 +2537,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5259705" y="3208020"/>
-          <a:ext cx="1817370" cy="278130"/>
+          <a:off x="6412230" y="3198495"/>
+          <a:ext cx="2274570" cy="278130"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2787,21 +2625,21 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>1905</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>127635</xdr:rowOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>832485</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="82" name="직사각형 81">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000016000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000016000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2809,7 +2647,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4192905" y="4109085"/>
+          <a:off x="4192905" y="4994910"/>
           <a:ext cx="1668780" cy="424815"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2895,7 +2733,7 @@
         <xdr:cNvPr id="86" name="직선 화살표 연결선 85">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00002A000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00002A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2933,22 +2771,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>15240</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>102870</xdr:rowOff>
+      <xdr:colOff>19049</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>64769</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>7620</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>836294</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>66674</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="87" name="직사각형 86">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00009D000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00009D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2956,8 +2794,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9235440" y="5760720"/>
-          <a:ext cx="1668780" cy="792480"/>
+          <a:off x="9239249" y="5303519"/>
+          <a:ext cx="1655445" cy="840105"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3033,6 +2871,15 @@
             </a:rPr>
             <a:t>에 결과 표시</a:t>
           </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1000">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+            </a:rPr>
+            <a:t>7</a:t>
+          </a:r>
           <a:endParaRPr lang="ko-KR" altLang="ko-KR" sz="1000">
             <a:solidFill>
               <a:schemeClr val="tx1"/>
@@ -3062,7 +2909,7 @@
         <xdr:cNvPr id="88" name="TextBox 87">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000095000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000095000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3132,7 +2979,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>REQUEST_RESULT</a:t>
+            <a:t>REQUEST_RESULT,20</a:t>
           </a:r>
           <a:endParaRPr lang="ko-KR" altLang="ko-KR" sz="1000">
             <a:effectLst/>
@@ -3160,7 +3007,7 @@
         <xdr:cNvPr id="89" name="TextBox 88">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000095000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000095000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3224,7 +3071,7 @@
             <a:rPr lang="en-US" altLang="ko-KR" sz="1000">
               <a:effectLst/>
             </a:rPr>
-            <a:t>FRACTIONATION_RESULT,1</a:t>
+            <a:t>FRACTIONATION_RESULT,0</a:t>
           </a:r>
           <a:endParaRPr lang="ko-KR" altLang="ko-KR" sz="1000">
             <a:effectLst/>
@@ -3252,7 +3099,7 @@
         <xdr:cNvPr id="93" name="직선 화살표 연결선 92">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00002F000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00002F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3290,13 +3137,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>497205</xdr:colOff>
+      <xdr:colOff>544830</xdr:colOff>
       <xdr:row>30</xdr:row>
       <xdr:rowOff>198120</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>257175</xdr:colOff>
+      <xdr:colOff>304800</xdr:colOff>
       <xdr:row>32</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
@@ -3305,7 +3152,7 @@
         <xdr:cNvPr id="100" name="TextBox 99">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000095000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000095000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3313,7 +3160,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6364605" y="6484620"/>
+          <a:off x="6412230" y="6484620"/>
           <a:ext cx="2274570" cy="278130"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3397,7 +3244,7 @@
         <xdr:cNvPr id="101" name="직선 화살표 연결선 100">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00002A000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00002A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3450,7 +3297,7 @@
         <xdr:cNvPr id="102" name="TextBox 101">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000095000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000095000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3515,6 +3362,238 @@
               <a:effectLst/>
             </a:rPr>
             <a:t>ROLLING_END</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="ko-KR" sz="1000">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>11430</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>194310</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="24" name="직사각형 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000016000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8401050" y="1428750"/>
+          <a:ext cx="1668780" cy="441960"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1000">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>접속확인</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1000">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>182880</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>194310</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="25" name="직선 화살표 연결선 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00002F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="24" idx="1"/>
+          <a:endCxn id="22" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="6705600" y="1649730"/>
+          <a:ext cx="1695450" cy="220980"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="29" name="TextBox 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000095000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6915150" y="1323975"/>
+          <a:ext cx="1228725" cy="219075"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1000">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>START</a:t>
           </a:r>
           <a:endParaRPr lang="ko-KR" altLang="ko-KR" sz="1000">
             <a:effectLst/>
@@ -3930,41 +4009,41 @@
       </c>
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B30" s="28" t="s">
+      <c r="B30" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="C30" s="29"/>
-      <c r="D30" s="30"/>
+      <c r="C30" s="28"/>
+      <c r="D30" s="29"/>
       <c r="F30" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B31" s="37" t="s">
+      <c r="B31" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="C31" s="38"/>
-      <c r="D31" s="39"/>
+      <c r="C31" s="32"/>
+      <c r="D31" s="33"/>
       <c r="F31" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B32" s="28" t="s">
+      <c r="B32" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="C32" s="29"/>
-      <c r="D32" s="30"/>
+      <c r="C32" s="28"/>
+      <c r="D32" s="29"/>
       <c r="F32" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B33" s="40" t="s">
+      <c r="B33" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="C33" s="41"/>
-      <c r="D33" s="42"/>
+      <c r="C33" s="35"/>
+      <c r="D33" s="36"/>
       <c r="F33" t="s">
         <v>101</v>
       </c>
@@ -4007,95 +4086,95 @@
       </c>
     </row>
     <row r="44" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="28" t="s">
+      <c r="B44" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="C44" s="29"/>
-      <c r="D44" s="30"/>
+      <c r="C44" s="28"/>
+      <c r="D44" s="29"/>
     </row>
     <row r="45" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B45" s="28" t="s">
+      <c r="B45" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="C45" s="29"/>
-      <c r="D45" s="30"/>
+      <c r="C45" s="28"/>
+      <c r="D45" s="29"/>
     </row>
     <row r="47" spans="2:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B47" s="27" t="s">
+      <c r="B47" s="42" t="s">
         <v>115</v>
       </c>
-      <c r="C47" s="36"/>
-      <c r="D47" s="36"/>
+      <c r="C47" s="43"/>
+      <c r="D47" s="43"/>
     </row>
     <row r="48" spans="2:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B48" s="27"/>
-      <c r="C48" s="36"/>
-      <c r="D48" s="36"/>
+      <c r="B48" s="42"/>
+      <c r="C48" s="43"/>
+      <c r="D48" s="43"/>
     </row>
     <row r="49" spans="2:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B49" s="27"/>
-      <c r="C49" s="36"/>
-      <c r="D49" s="36"/>
+      <c r="B49" s="42"/>
+      <c r="C49" s="43"/>
+      <c r="D49" s="43"/>
     </row>
     <row r="50" spans="2:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B50" s="27"/>
-      <c r="C50" s="36"/>
-      <c r="D50" s="36"/>
+      <c r="B50" s="42"/>
+      <c r="C50" s="43"/>
+      <c r="D50" s="43"/>
     </row>
     <row r="51" spans="2:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B51" s="27"/>
-      <c r="C51" s="36"/>
-      <c r="D51" s="36"/>
+      <c r="B51" s="42"/>
+      <c r="C51" s="43"/>
+      <c r="D51" s="43"/>
     </row>
     <row r="52" spans="2:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B52" s="27"/>
-      <c r="C52" s="36"/>
-      <c r="D52" s="36"/>
+      <c r="B52" s="42"/>
+      <c r="C52" s="43"/>
+      <c r="D52" s="43"/>
     </row>
     <row r="53" spans="2:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B53" s="27"/>
-      <c r="C53" s="36"/>
-      <c r="D53" s="36"/>
+      <c r="B53" s="42"/>
+      <c r="C53" s="43"/>
+      <c r="D53" s="43"/>
     </row>
     <row r="54" spans="2:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B54" s="27"/>
-      <c r="C54" s="36"/>
-      <c r="D54" s="36"/>
+      <c r="B54" s="42"/>
+      <c r="C54" s="43"/>
+      <c r="D54" s="43"/>
     </row>
     <row r="55" spans="2:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B55" s="27"/>
-      <c r="C55" s="36"/>
-      <c r="D55" s="36"/>
+      <c r="B55" s="42"/>
+      <c r="C55" s="43"/>
+      <c r="D55" s="43"/>
     </row>
     <row r="56" spans="2:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B56" s="27"/>
-      <c r="C56" s="36"/>
-      <c r="D56" s="36"/>
+      <c r="B56" s="42"/>
+      <c r="C56" s="43"/>
+      <c r="D56" s="43"/>
     </row>
     <row r="57" spans="2:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B57" s="27"/>
-      <c r="C57" s="36"/>
-      <c r="D57" s="36"/>
+      <c r="B57" s="42"/>
+      <c r="C57" s="43"/>
+      <c r="D57" s="43"/>
     </row>
     <row r="58" spans="2:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B58" s="27"/>
-      <c r="C58" s="36"/>
-      <c r="D58" s="36"/>
+      <c r="B58" s="42"/>
+      <c r="C58" s="43"/>
+      <c r="D58" s="43"/>
     </row>
     <row r="59" spans="2:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B59" s="27"/>
-      <c r="C59" s="36"/>
-      <c r="D59" s="36"/>
+      <c r="B59" s="42"/>
+      <c r="C59" s="43"/>
+      <c r="D59" s="43"/>
     </row>
     <row r="60" spans="2:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B60" s="27"/>
-      <c r="C60" s="36"/>
-      <c r="D60" s="36"/>
+      <c r="B60" s="42"/>
+      <c r="C60" s="43"/>
+      <c r="D60" s="43"/>
     </row>
     <row r="61" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B61" s="36"/>
-      <c r="C61" s="36"/>
-      <c r="D61" s="36"/>
+      <c r="B61" s="43"/>
+      <c r="C61" s="43"/>
+      <c r="D61" s="43"/>
     </row>
     <row r="63" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B63" s="3" t="s">
@@ -4103,21 +4182,21 @@
       </c>
     </row>
     <row r="64" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B64" s="27" t="s">
+      <c r="B64" s="42" t="s">
         <v>117</v>
       </c>
-      <c r="C64" s="36"/>
-      <c r="D64" s="36"/>
+      <c r="C64" s="43"/>
+      <c r="D64" s="43"/>
     </row>
     <row r="65" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B65" s="36"/>
-      <c r="C65" s="36"/>
-      <c r="D65" s="36"/>
+      <c r="B65" s="43"/>
+      <c r="C65" s="43"/>
+      <c r="D65" s="43"/>
     </row>
     <row r="66" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B66" s="36"/>
-      <c r="C66" s="36"/>
-      <c r="D66" s="36"/>
+      <c r="B66" s="43"/>
+      <c r="C66" s="43"/>
+      <c r="D66" s="43"/>
     </row>
     <row r="68" spans="2:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B68" s="6" t="s">
@@ -4152,121 +4231,121 @@
       </c>
     </row>
     <row r="75" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B75" s="28" t="s">
+      <c r="B75" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="C75" s="29"/>
-      <c r="D75" s="30"/>
-      <c r="F75" s="31" t="s">
+      <c r="C75" s="28"/>
+      <c r="D75" s="29"/>
+      <c r="F75" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="G75" s="31"/>
-      <c r="H75" s="31"/>
-      <c r="I75" s="31"/>
+      <c r="G75" s="30"/>
+      <c r="H75" s="30"/>
+      <c r="I75" s="30"/>
     </row>
     <row r="76" spans="2:9" ht="28.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B76" s="33" t="s">
+      <c r="B76" s="41" t="s">
         <v>48</v>
       </c>
-      <c r="C76" s="34"/>
-      <c r="D76" s="35"/>
-      <c r="F76" s="32" t="s">
+      <c r="C76" s="38"/>
+      <c r="D76" s="39"/>
+      <c r="F76" s="40" t="s">
         <v>69</v>
       </c>
-      <c r="G76" s="32"/>
-      <c r="H76" s="32"/>
-      <c r="I76" s="32"/>
+      <c r="G76" s="40"/>
+      <c r="H76" s="40"/>
+      <c r="I76" s="40"/>
     </row>
     <row r="77" spans="2:9" ht="54" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B77" s="28" t="s">
+      <c r="B77" s="27" t="s">
         <v>49</v>
       </c>
-      <c r="C77" s="29"/>
-      <c r="D77" s="30"/>
-      <c r="F77" s="31" t="s">
+      <c r="C77" s="28"/>
+      <c r="D77" s="29"/>
+      <c r="F77" s="30" t="s">
         <v>56</v>
       </c>
-      <c r="G77" s="31"/>
-      <c r="H77" s="31"/>
-      <c r="I77" s="31"/>
+      <c r="G77" s="30"/>
+      <c r="H77" s="30"/>
+      <c r="I77" s="30"/>
     </row>
     <row r="78" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B78" s="28" t="s">
+      <c r="B78" s="27" t="s">
         <v>50</v>
       </c>
-      <c r="C78" s="29"/>
-      <c r="D78" s="30"/>
-      <c r="F78" s="32" t="s">
+      <c r="C78" s="28"/>
+      <c r="D78" s="29"/>
+      <c r="F78" s="40" t="s">
         <v>105</v>
       </c>
-      <c r="G78" s="32"/>
-      <c r="H78" s="32"/>
-      <c r="I78" s="32"/>
+      <c r="G78" s="40"/>
+      <c r="H78" s="40"/>
+      <c r="I78" s="40"/>
     </row>
     <row r="79" spans="2:9" ht="31.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B79" s="28" t="s">
+      <c r="B79" s="27" t="s">
         <v>47</v>
       </c>
-      <c r="C79" s="29"/>
-      <c r="D79" s="30"/>
-      <c r="F79" s="32" t="s">
+      <c r="C79" s="28"/>
+      <c r="D79" s="29"/>
+      <c r="F79" s="40" t="s">
         <v>106</v>
       </c>
-      <c r="G79" s="32"/>
-      <c r="H79" s="32"/>
-      <c r="I79" s="32"/>
+      <c r="G79" s="40"/>
+      <c r="H79" s="40"/>
+      <c r="I79" s="40"/>
     </row>
     <row r="80" spans="2:9" ht="51.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B80" s="43" t="s">
+      <c r="B80" s="37" t="s">
         <v>108</v>
       </c>
-      <c r="C80" s="34"/>
-      <c r="D80" s="35"/>
-      <c r="F80" s="31" t="s">
+      <c r="C80" s="38"/>
+      <c r="D80" s="39"/>
+      <c r="F80" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="G80" s="31"/>
-      <c r="H80" s="31"/>
-      <c r="I80" s="31"/>
+      <c r="G80" s="30"/>
+      <c r="H80" s="30"/>
+      <c r="I80" s="30"/>
     </row>
     <row r="81" spans="2:9" ht="60" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B81" s="28" t="s">
+      <c r="B81" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="C81" s="29"/>
-      <c r="D81" s="30"/>
-      <c r="F81" s="31" t="s">
+      <c r="C81" s="28"/>
+      <c r="D81" s="29"/>
+      <c r="F81" s="30" t="s">
         <v>52</v>
       </c>
-      <c r="G81" s="31"/>
-      <c r="H81" s="31"/>
-      <c r="I81" s="31"/>
+      <c r="G81" s="30"/>
+      <c r="H81" s="30"/>
+      <c r="I81" s="30"/>
     </row>
     <row r="82" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B82" s="28" t="s">
+      <c r="B82" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="C82" s="29"/>
-      <c r="D82" s="30"/>
-      <c r="F82" s="31" t="s">
+      <c r="C82" s="28"/>
+      <c r="D82" s="29"/>
+      <c r="F82" s="30" t="s">
         <v>54</v>
       </c>
-      <c r="G82" s="31"/>
-      <c r="H82" s="31"/>
-      <c r="I82" s="31"/>
+      <c r="G82" s="30"/>
+      <c r="H82" s="30"/>
+      <c r="I82" s="30"/>
     </row>
     <row r="83" spans="2:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B83" s="28" t="s">
+      <c r="B83" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="C83" s="29"/>
-      <c r="D83" s="30"/>
-      <c r="F83" s="31" t="s">
+      <c r="C83" s="28"/>
+      <c r="D83" s="29"/>
+      <c r="F83" s="30" t="s">
         <v>61</v>
       </c>
-      <c r="G83" s="31"/>
-      <c r="H83" s="31"/>
-      <c r="I83" s="31"/>
+      <c r="G83" s="30"/>
+      <c r="H83" s="30"/>
+      <c r="I83" s="30"/>
     </row>
     <row r="85" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B85" s="16" t="s">
@@ -4384,58 +4463,58 @@
       </c>
     </row>
     <row r="97" spans="2:4" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B97" s="27" t="s">
+      <c r="B97" s="42" t="s">
         <v>32</v>
       </c>
-      <c r="C97" s="27"/>
-      <c r="D97" s="27"/>
+      <c r="C97" s="42"/>
+      <c r="D97" s="42"/>
     </row>
     <row r="98" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B98" s="27"/>
-      <c r="C98" s="27"/>
-      <c r="D98" s="27"/>
+      <c r="B98" s="42"/>
+      <c r="C98" s="42"/>
+      <c r="D98" s="42"/>
     </row>
     <row r="99" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B99" s="27"/>
-      <c r="C99" s="27"/>
-      <c r="D99" s="27"/>
+      <c r="B99" s="42"/>
+      <c r="C99" s="42"/>
+      <c r="D99" s="42"/>
     </row>
     <row r="100" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B100" s="27"/>
-      <c r="C100" s="27"/>
-      <c r="D100" s="27"/>
+      <c r="B100" s="42"/>
+      <c r="C100" s="42"/>
+      <c r="D100" s="42"/>
     </row>
     <row r="102" spans="2:4" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B102" s="31" t="s">
+      <c r="B102" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="C102" s="31"/>
-      <c r="D102" s="31"/>
+      <c r="C102" s="30"/>
+      <c r="D102" s="30"/>
     </row>
     <row r="103" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B103" s="31"/>
-      <c r="C103" s="31"/>
-      <c r="D103" s="31"/>
+      <c r="B103" s="30"/>
+      <c r="C103" s="30"/>
+      <c r="D103" s="30"/>
     </row>
     <row r="104" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B104" s="31"/>
-      <c r="C104" s="31"/>
-      <c r="D104" s="31"/>
+      <c r="B104" s="30"/>
+      <c r="C104" s="30"/>
+      <c r="D104" s="30"/>
     </row>
     <row r="105" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B105" s="31"/>
-      <c r="C105" s="31"/>
-      <c r="D105" s="31"/>
+      <c r="B105" s="30"/>
+      <c r="C105" s="30"/>
+      <c r="D105" s="30"/>
     </row>
     <row r="106" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B106" s="31"/>
-      <c r="C106" s="31"/>
-      <c r="D106" s="31"/>
+      <c r="B106" s="30"/>
+      <c r="C106" s="30"/>
+      <c r="D106" s="30"/>
     </row>
     <row r="107" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B107" s="31"/>
-      <c r="C107" s="31"/>
-      <c r="D107" s="31"/>
+      <c r="B107" s="30"/>
+      <c r="C107" s="30"/>
+      <c r="D107" s="30"/>
     </row>
     <row r="109" spans="2:4" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B109" s="6" t="s">
@@ -4452,106 +4531,106 @@
       </c>
     </row>
     <row r="113" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B113" s="28" t="s">
+      <c r="B113" s="27" t="s">
         <v>73</v>
       </c>
-      <c r="C113" s="29"/>
-      <c r="D113" s="30"/>
+      <c r="C113" s="28"/>
+      <c r="D113" s="29"/>
       <c r="F113" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="114" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B114" s="28" t="s">
+      <c r="B114" s="27" t="s">
         <v>65</v>
       </c>
-      <c r="C114" s="29"/>
-      <c r="D114" s="30"/>
+      <c r="C114" s="28"/>
+      <c r="D114" s="29"/>
       <c r="F114" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="115" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B115" s="28" t="s">
+      <c r="B115" s="27" t="s">
         <v>66</v>
       </c>
-      <c r="C115" s="29"/>
-      <c r="D115" s="30"/>
+      <c r="C115" s="28"/>
+      <c r="D115" s="29"/>
       <c r="F115" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="116" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B116" s="28" t="s">
+      <c r="B116" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="C116" s="29"/>
-      <c r="D116" s="30"/>
-      <c r="F116" s="32" t="s">
+      <c r="C116" s="28"/>
+      <c r="D116" s="29"/>
+      <c r="F116" s="40" t="s">
         <v>69</v>
       </c>
-      <c r="G116" s="32"/>
-      <c r="H116" s="32"/>
-      <c r="I116" s="32"/>
+      <c r="G116" s="40"/>
+      <c r="H116" s="40"/>
+      <c r="I116" s="40"/>
     </row>
     <row r="117" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B117" s="28" t="s">
+      <c r="B117" s="27" t="s">
         <v>49</v>
       </c>
-      <c r="C117" s="29"/>
-      <c r="D117" s="30"/>
-      <c r="F117" s="31" t="s">
+      <c r="C117" s="28"/>
+      <c r="D117" s="29"/>
+      <c r="F117" s="30" t="s">
         <v>56</v>
       </c>
-      <c r="G117" s="31"/>
-      <c r="H117" s="31"/>
-      <c r="I117" s="31"/>
+      <c r="G117" s="30"/>
+      <c r="H117" s="30"/>
+      <c r="I117" s="30"/>
     </row>
     <row r="118" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B118" s="28" t="s">
+      <c r="B118" s="27" t="s">
         <v>50</v>
       </c>
-      <c r="C118" s="29"/>
-      <c r="D118" s="30"/>
-      <c r="F118" s="32" t="s">
+      <c r="C118" s="28"/>
+      <c r="D118" s="29"/>
+      <c r="F118" s="40" t="s">
         <v>51</v>
       </c>
-      <c r="G118" s="32"/>
-      <c r="H118" s="32"/>
-      <c r="I118" s="32"/>
+      <c r="G118" s="40"/>
+      <c r="H118" s="40"/>
+      <c r="I118" s="40"/>
     </row>
     <row r="119" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B119" s="28" t="s">
+      <c r="B119" s="27" t="s">
         <v>47</v>
       </c>
-      <c r="C119" s="29"/>
-      <c r="D119" s="30"/>
-      <c r="F119" s="32" t="s">
+      <c r="C119" s="28"/>
+      <c r="D119" s="29"/>
+      <c r="F119" s="40" t="s">
         <v>60</v>
       </c>
-      <c r="G119" s="32"/>
-      <c r="H119" s="32"/>
-      <c r="I119" s="32"/>
+      <c r="G119" s="40"/>
+      <c r="H119" s="40"/>
+      <c r="I119" s="40"/>
     </row>
     <row r="120" spans="2:9" ht="85.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B120" s="28" t="s">
+      <c r="B120" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="C120" s="29"/>
-      <c r="D120" s="30"/>
-      <c r="F120" s="31" t="s">
+      <c r="C120" s="28"/>
+      <c r="D120" s="29"/>
+      <c r="F120" s="30" t="s">
         <v>70</v>
       </c>
-      <c r="G120" s="31"/>
-      <c r="H120" s="31"/>
-      <c r="I120" s="31"/>
+      <c r="G120" s="30"/>
+      <c r="H120" s="30"/>
+      <c r="I120" s="30"/>
     </row>
     <row r="121" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B121" s="28" t="s">
+      <c r="B121" s="27" t="s">
         <v>72</v>
       </c>
-      <c r="C121" s="29"/>
-      <c r="D121" s="30"/>
+      <c r="C121" s="28"/>
+      <c r="D121" s="29"/>
       <c r="F121" t="s">
         <v>71</v>
       </c>
@@ -4668,18 +4747,22 @@
     </row>
   </sheetData>
   <mergeCells count="42">
-    <mergeCell ref="B81:D81"/>
-    <mergeCell ref="B82:D82"/>
-    <mergeCell ref="B83:D83"/>
-    <mergeCell ref="F80:I80"/>
-    <mergeCell ref="F81:I81"/>
-    <mergeCell ref="F82:I82"/>
-    <mergeCell ref="F83:I83"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="B80:D80"/>
+    <mergeCell ref="B97:D100"/>
+    <mergeCell ref="B116:D116"/>
+    <mergeCell ref="B115:D115"/>
+    <mergeCell ref="B114:D114"/>
+    <mergeCell ref="B113:D113"/>
+    <mergeCell ref="B102:D107"/>
+    <mergeCell ref="B121:D121"/>
+    <mergeCell ref="B120:D120"/>
+    <mergeCell ref="B119:D119"/>
+    <mergeCell ref="B118:D118"/>
+    <mergeCell ref="B117:D117"/>
+    <mergeCell ref="F117:I117"/>
+    <mergeCell ref="F118:I118"/>
+    <mergeCell ref="F119:I119"/>
+    <mergeCell ref="F120:I120"/>
+    <mergeCell ref="F116:I116"/>
     <mergeCell ref="F79:I79"/>
     <mergeCell ref="B44:D44"/>
     <mergeCell ref="B45:D45"/>
@@ -4694,22 +4777,18 @@
     <mergeCell ref="F76:I76"/>
     <mergeCell ref="F77:I77"/>
     <mergeCell ref="F78:I78"/>
-    <mergeCell ref="F117:I117"/>
-    <mergeCell ref="F118:I118"/>
-    <mergeCell ref="F119:I119"/>
-    <mergeCell ref="F120:I120"/>
-    <mergeCell ref="F116:I116"/>
-    <mergeCell ref="B121:D121"/>
-    <mergeCell ref="B120:D120"/>
-    <mergeCell ref="B119:D119"/>
-    <mergeCell ref="B118:D118"/>
-    <mergeCell ref="B117:D117"/>
-    <mergeCell ref="B97:D100"/>
-    <mergeCell ref="B116:D116"/>
-    <mergeCell ref="B115:D115"/>
-    <mergeCell ref="B114:D114"/>
-    <mergeCell ref="B113:D113"/>
-    <mergeCell ref="B102:D107"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="B80:D80"/>
+    <mergeCell ref="B81:D81"/>
+    <mergeCell ref="B82:D82"/>
+    <mergeCell ref="B83:D83"/>
+    <mergeCell ref="F80:I80"/>
+    <mergeCell ref="F81:I81"/>
+    <mergeCell ref="F82:I82"/>
+    <mergeCell ref="F83:I83"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4722,8 +4801,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:R54"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="O14" sqref="O14"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D4" workbookViewId="0">
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4978,10 +5057,10 @@
       <c r="L22" s="25"/>
       <c r="M22" s="8"/>
       <c r="O22" s="15" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="P22" s="15">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="2:16" x14ac:dyDescent="0.3">
@@ -4994,10 +5073,10 @@
       <c r="L23" s="25"/>
       <c r="M23" s="8"/>
       <c r="O23" s="15" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="P23" s="15">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="2:16" x14ac:dyDescent="0.3">
@@ -5010,7 +5089,7 @@
       <c r="L24" s="25"/>
       <c r="M24" s="8"/>
       <c r="O24" s="15" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="P24" s="15">
         <v>3</v>
@@ -5026,7 +5105,7 @@
       <c r="L25" s="25"/>
       <c r="M25" s="8"/>
       <c r="O25" s="15" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="P25" s="15">
         <v>4</v>

--- a/doc/01. 프로젝트 설계/Server 프로토콜.xlsx
+++ b/doc/01. 프로젝트 설계/Server 프로토콜.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\project 3\자료\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\GitHub\ANU-SmartFactory-2022\doc\01. 프로젝트 설계\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1266,9 +1266,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1280,21 +1277,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1316,6 +1298,24 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1377,7 +1377,7 @@
         <xdr:cNvPr id="3" name="직사각형 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1535,7 +1535,7 @@
         <xdr:cNvPr id="4" name="그림 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000004000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1584,7 +1584,7 @@
         <xdr:cNvPr id="3" name="직사각형 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1657,7 +1657,7 @@
         <xdr:cNvPr id="22" name="직사각형 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000016000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000016000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1730,7 +1730,7 @@
         <xdr:cNvPr id="64" name="직사각형 63">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000040000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000040000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1808,7 +1808,7 @@
         <xdr:cNvPr id="66" name="직사각형 65">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000042000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000042000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1897,7 +1897,7 @@
         <xdr:cNvPr id="158" name="직사각형 157">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00009E000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00009E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1983,7 +1983,7 @@
         <xdr:cNvPr id="74" name="직사각형 73">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000016000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000016000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2072,7 +2072,7 @@
         <xdr:cNvPr id="79" name="직사각형 78">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000016000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000016000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2182,7 +2182,7 @@
         <xdr:cNvPr id="82" name="직사각형 81">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000016000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000016000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2276,7 +2276,7 @@
         <xdr:cNvPr id="86" name="직선 화살표 연결선 85">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00002A000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00002A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2329,7 +2329,7 @@
         <xdr:cNvPr id="87" name="직사각형 86">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00009D000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00009D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2454,7 +2454,7 @@
         <xdr:cNvPr id="89" name="TextBox 88">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000095000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000095000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2508,7 +2508,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>RESULT,1,4</a:t>
+            <a:t>RESULT,1(qr),4</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -2533,7 +2533,7 @@
         <xdr:cNvPr id="101" name="직선 화살표 연결선 100">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00002A000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00002A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2588,7 +2588,7 @@
         <xdr:cNvPr id="102" name="TextBox 101">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000095000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000095000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2680,7 +2680,7 @@
         <xdr:cNvPr id="24" name="직사각형 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000016000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000016000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2758,7 +2758,7 @@
         <xdr:cNvPr id="29" name="TextBox 28">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000095000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000095000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2856,7 +2856,7 @@
         <xdr:cNvPr id="33" name="직사각형 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000016000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000016000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2934,7 +2934,7 @@
         <xdr:cNvPr id="34" name="직사각형 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000016000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000016000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3012,7 +3012,7 @@
         <xdr:cNvPr id="40" name="직선 화살표 연결선 39">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00002A000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00002A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3065,7 +3065,7 @@
         <xdr:cNvPr id="45" name="TextBox 44">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000095000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000095000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3157,7 +3157,7 @@
         <xdr:cNvPr id="26" name="직사각형 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000016000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000016000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3235,7 +3235,7 @@
         <xdr:cNvPr id="30" name="직사각형 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00009E000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00009E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3313,7 +3313,7 @@
         <xdr:cNvPr id="31" name="직선 화살표 연결선 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00002A000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00002A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3366,7 +3366,7 @@
         <xdr:cNvPr id="32" name="직선 화살표 연결선 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00002F000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00002F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3421,7 +3421,7 @@
         <xdr:cNvPr id="25" name="TextBox 24">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000095000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000095000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3901,41 +3901,41 @@
       </c>
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B30" s="28" t="s">
+      <c r="B30" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="C30" s="29"/>
-      <c r="D30" s="30"/>
+      <c r="C30" s="28"/>
+      <c r="D30" s="29"/>
       <c r="F30" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B31" s="37" t="s">
+      <c r="B31" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="C31" s="38"/>
-      <c r="D31" s="39"/>
+      <c r="C31" s="32"/>
+      <c r="D31" s="33"/>
       <c r="F31" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B32" s="28" t="s">
+      <c r="B32" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="C32" s="29"/>
-      <c r="D32" s="30"/>
+      <c r="C32" s="28"/>
+      <c r="D32" s="29"/>
       <c r="F32" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B33" s="40" t="s">
+      <c r="B33" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="C33" s="41"/>
-      <c r="D33" s="42"/>
+      <c r="C33" s="35"/>
+      <c r="D33" s="36"/>
       <c r="F33" t="s">
         <v>101</v>
       </c>
@@ -3978,95 +3978,95 @@
       </c>
     </row>
     <row r="44" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="28" t="s">
+      <c r="B44" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="C44" s="29"/>
-      <c r="D44" s="30"/>
+      <c r="C44" s="28"/>
+      <c r="D44" s="29"/>
     </row>
     <row r="45" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B45" s="28" t="s">
+      <c r="B45" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="C45" s="29"/>
-      <c r="D45" s="30"/>
+      <c r="C45" s="28"/>
+      <c r="D45" s="29"/>
     </row>
     <row r="47" spans="2:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B47" s="27" t="s">
+      <c r="B47" s="42" t="s">
         <v>115</v>
       </c>
-      <c r="C47" s="36"/>
-      <c r="D47" s="36"/>
+      <c r="C47" s="43"/>
+      <c r="D47" s="43"/>
     </row>
     <row r="48" spans="2:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B48" s="27"/>
-      <c r="C48" s="36"/>
-      <c r="D48" s="36"/>
+      <c r="B48" s="42"/>
+      <c r="C48" s="43"/>
+      <c r="D48" s="43"/>
     </row>
     <row r="49" spans="2:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B49" s="27"/>
-      <c r="C49" s="36"/>
-      <c r="D49" s="36"/>
+      <c r="B49" s="42"/>
+      <c r="C49" s="43"/>
+      <c r="D49" s="43"/>
     </row>
     <row r="50" spans="2:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B50" s="27"/>
-      <c r="C50" s="36"/>
-      <c r="D50" s="36"/>
+      <c r="B50" s="42"/>
+      <c r="C50" s="43"/>
+      <c r="D50" s="43"/>
     </row>
     <row r="51" spans="2:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B51" s="27"/>
-      <c r="C51" s="36"/>
-      <c r="D51" s="36"/>
+      <c r="B51" s="42"/>
+      <c r="C51" s="43"/>
+      <c r="D51" s="43"/>
     </row>
     <row r="52" spans="2:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B52" s="27"/>
-      <c r="C52" s="36"/>
-      <c r="D52" s="36"/>
+      <c r="B52" s="42"/>
+      <c r="C52" s="43"/>
+      <c r="D52" s="43"/>
     </row>
     <row r="53" spans="2:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B53" s="27"/>
-      <c r="C53" s="36"/>
-      <c r="D53" s="36"/>
+      <c r="B53" s="42"/>
+      <c r="C53" s="43"/>
+      <c r="D53" s="43"/>
     </row>
     <row r="54" spans="2:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B54" s="27"/>
-      <c r="C54" s="36"/>
-      <c r="D54" s="36"/>
+      <c r="B54" s="42"/>
+      <c r="C54" s="43"/>
+      <c r="D54" s="43"/>
     </row>
     <row r="55" spans="2:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B55" s="27"/>
-      <c r="C55" s="36"/>
-      <c r="D55" s="36"/>
+      <c r="B55" s="42"/>
+      <c r="C55" s="43"/>
+      <c r="D55" s="43"/>
     </row>
     <row r="56" spans="2:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B56" s="27"/>
-      <c r="C56" s="36"/>
-      <c r="D56" s="36"/>
+      <c r="B56" s="42"/>
+      <c r="C56" s="43"/>
+      <c r="D56" s="43"/>
     </row>
     <row r="57" spans="2:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B57" s="27"/>
-      <c r="C57" s="36"/>
-      <c r="D57" s="36"/>
+      <c r="B57" s="42"/>
+      <c r="C57" s="43"/>
+      <c r="D57" s="43"/>
     </row>
     <row r="58" spans="2:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B58" s="27"/>
-      <c r="C58" s="36"/>
-      <c r="D58" s="36"/>
+      <c r="B58" s="42"/>
+      <c r="C58" s="43"/>
+      <c r="D58" s="43"/>
     </row>
     <row r="59" spans="2:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B59" s="27"/>
-      <c r="C59" s="36"/>
-      <c r="D59" s="36"/>
+      <c r="B59" s="42"/>
+      <c r="C59" s="43"/>
+      <c r="D59" s="43"/>
     </row>
     <row r="60" spans="2:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B60" s="27"/>
-      <c r="C60" s="36"/>
-      <c r="D60" s="36"/>
+      <c r="B60" s="42"/>
+      <c r="C60" s="43"/>
+      <c r="D60" s="43"/>
     </row>
     <row r="61" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B61" s="36"/>
-      <c r="C61" s="36"/>
-      <c r="D61" s="36"/>
+      <c r="B61" s="43"/>
+      <c r="C61" s="43"/>
+      <c r="D61" s="43"/>
     </row>
     <row r="63" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B63" s="3" t="s">
@@ -4074,21 +4074,21 @@
       </c>
     </row>
     <row r="64" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B64" s="27" t="s">
+      <c r="B64" s="42" t="s">
         <v>117</v>
       </c>
-      <c r="C64" s="36"/>
-      <c r="D64" s="36"/>
+      <c r="C64" s="43"/>
+      <c r="D64" s="43"/>
     </row>
     <row r="65" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B65" s="36"/>
-      <c r="C65" s="36"/>
-      <c r="D65" s="36"/>
+      <c r="B65" s="43"/>
+      <c r="C65" s="43"/>
+      <c r="D65" s="43"/>
     </row>
     <row r="66" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B66" s="36"/>
-      <c r="C66" s="36"/>
-      <c r="D66" s="36"/>
+      <c r="B66" s="43"/>
+      <c r="C66" s="43"/>
+      <c r="D66" s="43"/>
     </row>
     <row r="68" spans="2:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B68" s="6" t="s">
@@ -4123,121 +4123,121 @@
       </c>
     </row>
     <row r="75" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B75" s="28" t="s">
+      <c r="B75" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="C75" s="29"/>
-      <c r="D75" s="30"/>
-      <c r="F75" s="31" t="s">
+      <c r="C75" s="28"/>
+      <c r="D75" s="29"/>
+      <c r="F75" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="G75" s="31"/>
-      <c r="H75" s="31"/>
-      <c r="I75" s="31"/>
+      <c r="G75" s="30"/>
+      <c r="H75" s="30"/>
+      <c r="I75" s="30"/>
     </row>
     <row r="76" spans="2:9" ht="28.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B76" s="33" t="s">
+      <c r="B76" s="41" t="s">
         <v>48</v>
       </c>
-      <c r="C76" s="34"/>
-      <c r="D76" s="35"/>
-      <c r="F76" s="32" t="s">
+      <c r="C76" s="38"/>
+      <c r="D76" s="39"/>
+      <c r="F76" s="40" t="s">
         <v>69</v>
       </c>
-      <c r="G76" s="32"/>
-      <c r="H76" s="32"/>
-      <c r="I76" s="32"/>
+      <c r="G76" s="40"/>
+      <c r="H76" s="40"/>
+      <c r="I76" s="40"/>
     </row>
     <row r="77" spans="2:9" ht="54" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B77" s="28" t="s">
+      <c r="B77" s="27" t="s">
         <v>49</v>
       </c>
-      <c r="C77" s="29"/>
-      <c r="D77" s="30"/>
-      <c r="F77" s="31" t="s">
+      <c r="C77" s="28"/>
+      <c r="D77" s="29"/>
+      <c r="F77" s="30" t="s">
         <v>56</v>
       </c>
-      <c r="G77" s="31"/>
-      <c r="H77" s="31"/>
-      <c r="I77" s="31"/>
+      <c r="G77" s="30"/>
+      <c r="H77" s="30"/>
+      <c r="I77" s="30"/>
     </row>
     <row r="78" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B78" s="28" t="s">
+      <c r="B78" s="27" t="s">
         <v>50</v>
       </c>
-      <c r="C78" s="29"/>
-      <c r="D78" s="30"/>
-      <c r="F78" s="32" t="s">
+      <c r="C78" s="28"/>
+      <c r="D78" s="29"/>
+      <c r="F78" s="40" t="s">
         <v>105</v>
       </c>
-      <c r="G78" s="32"/>
-      <c r="H78" s="32"/>
-      <c r="I78" s="32"/>
+      <c r="G78" s="40"/>
+      <c r="H78" s="40"/>
+      <c r="I78" s="40"/>
     </row>
     <row r="79" spans="2:9" ht="31.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B79" s="28" t="s">
+      <c r="B79" s="27" t="s">
         <v>47</v>
       </c>
-      <c r="C79" s="29"/>
-      <c r="D79" s="30"/>
-      <c r="F79" s="32" t="s">
+      <c r="C79" s="28"/>
+      <c r="D79" s="29"/>
+      <c r="F79" s="40" t="s">
         <v>106</v>
       </c>
-      <c r="G79" s="32"/>
-      <c r="H79" s="32"/>
-      <c r="I79" s="32"/>
+      <c r="G79" s="40"/>
+      <c r="H79" s="40"/>
+      <c r="I79" s="40"/>
     </row>
     <row r="80" spans="2:9" ht="51.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B80" s="43" t="s">
+      <c r="B80" s="37" t="s">
         <v>108</v>
       </c>
-      <c r="C80" s="34"/>
-      <c r="D80" s="35"/>
-      <c r="F80" s="31" t="s">
+      <c r="C80" s="38"/>
+      <c r="D80" s="39"/>
+      <c r="F80" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="G80" s="31"/>
-      <c r="H80" s="31"/>
-      <c r="I80" s="31"/>
+      <c r="G80" s="30"/>
+      <c r="H80" s="30"/>
+      <c r="I80" s="30"/>
     </row>
     <row r="81" spans="2:9" ht="60" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B81" s="28" t="s">
+      <c r="B81" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="C81" s="29"/>
-      <c r="D81" s="30"/>
-      <c r="F81" s="31" t="s">
+      <c r="C81" s="28"/>
+      <c r="D81" s="29"/>
+      <c r="F81" s="30" t="s">
         <v>52</v>
       </c>
-      <c r="G81" s="31"/>
-      <c r="H81" s="31"/>
-      <c r="I81" s="31"/>
+      <c r="G81" s="30"/>
+      <c r="H81" s="30"/>
+      <c r="I81" s="30"/>
     </row>
     <row r="82" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B82" s="28" t="s">
+      <c r="B82" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="C82" s="29"/>
-      <c r="D82" s="30"/>
-      <c r="F82" s="31" t="s">
+      <c r="C82" s="28"/>
+      <c r="D82" s="29"/>
+      <c r="F82" s="30" t="s">
         <v>54</v>
       </c>
-      <c r="G82" s="31"/>
-      <c r="H82" s="31"/>
-      <c r="I82" s="31"/>
+      <c r="G82" s="30"/>
+      <c r="H82" s="30"/>
+      <c r="I82" s="30"/>
     </row>
     <row r="83" spans="2:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B83" s="28" t="s">
+      <c r="B83" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="C83" s="29"/>
-      <c r="D83" s="30"/>
-      <c r="F83" s="31" t="s">
+      <c r="C83" s="28"/>
+      <c r="D83" s="29"/>
+      <c r="F83" s="30" t="s">
         <v>61</v>
       </c>
-      <c r="G83" s="31"/>
-      <c r="H83" s="31"/>
-      <c r="I83" s="31"/>
+      <c r="G83" s="30"/>
+      <c r="H83" s="30"/>
+      <c r="I83" s="30"/>
     </row>
     <row r="85" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B85" s="16" t="s">
@@ -4355,58 +4355,58 @@
       </c>
     </row>
     <row r="97" spans="2:4" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B97" s="27" t="s">
+      <c r="B97" s="42" t="s">
         <v>32</v>
       </c>
-      <c r="C97" s="27"/>
-      <c r="D97" s="27"/>
+      <c r="C97" s="42"/>
+      <c r="D97" s="42"/>
     </row>
     <row r="98" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B98" s="27"/>
-      <c r="C98" s="27"/>
-      <c r="D98" s="27"/>
+      <c r="B98" s="42"/>
+      <c r="C98" s="42"/>
+      <c r="D98" s="42"/>
     </row>
     <row r="99" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B99" s="27"/>
-      <c r="C99" s="27"/>
-      <c r="D99" s="27"/>
+      <c r="B99" s="42"/>
+      <c r="C99" s="42"/>
+      <c r="D99" s="42"/>
     </row>
     <row r="100" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B100" s="27"/>
-      <c r="C100" s="27"/>
-      <c r="D100" s="27"/>
+      <c r="B100" s="42"/>
+      <c r="C100" s="42"/>
+      <c r="D100" s="42"/>
     </row>
     <row r="102" spans="2:4" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B102" s="31" t="s">
+      <c r="B102" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="C102" s="31"/>
-      <c r="D102" s="31"/>
+      <c r="C102" s="30"/>
+      <c r="D102" s="30"/>
     </row>
     <row r="103" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B103" s="31"/>
-      <c r="C103" s="31"/>
-      <c r="D103" s="31"/>
+      <c r="B103" s="30"/>
+      <c r="C103" s="30"/>
+      <c r="D103" s="30"/>
     </row>
     <row r="104" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B104" s="31"/>
-      <c r="C104" s="31"/>
-      <c r="D104" s="31"/>
+      <c r="B104" s="30"/>
+      <c r="C104" s="30"/>
+      <c r="D104" s="30"/>
     </row>
     <row r="105" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B105" s="31"/>
-      <c r="C105" s="31"/>
-      <c r="D105" s="31"/>
+      <c r="B105" s="30"/>
+      <c r="C105" s="30"/>
+      <c r="D105" s="30"/>
     </row>
     <row r="106" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B106" s="31"/>
-      <c r="C106" s="31"/>
-      <c r="D106" s="31"/>
+      <c r="B106" s="30"/>
+      <c r="C106" s="30"/>
+      <c r="D106" s="30"/>
     </row>
     <row r="107" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B107" s="31"/>
-      <c r="C107" s="31"/>
-      <c r="D107" s="31"/>
+      <c r="B107" s="30"/>
+      <c r="C107" s="30"/>
+      <c r="D107" s="30"/>
     </row>
     <row r="109" spans="2:4" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B109" s="6" t="s">
@@ -4423,106 +4423,106 @@
       </c>
     </row>
     <row r="113" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B113" s="28" t="s">
+      <c r="B113" s="27" t="s">
         <v>73</v>
       </c>
-      <c r="C113" s="29"/>
-      <c r="D113" s="30"/>
+      <c r="C113" s="28"/>
+      <c r="D113" s="29"/>
       <c r="F113" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="114" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B114" s="28" t="s">
+      <c r="B114" s="27" t="s">
         <v>65</v>
       </c>
-      <c r="C114" s="29"/>
-      <c r="D114" s="30"/>
+      <c r="C114" s="28"/>
+      <c r="D114" s="29"/>
       <c r="F114" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="115" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B115" s="28" t="s">
+      <c r="B115" s="27" t="s">
         <v>66</v>
       </c>
-      <c r="C115" s="29"/>
-      <c r="D115" s="30"/>
+      <c r="C115" s="28"/>
+      <c r="D115" s="29"/>
       <c r="F115" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="116" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B116" s="28" t="s">
+      <c r="B116" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="C116" s="29"/>
-      <c r="D116" s="30"/>
-      <c r="F116" s="32" t="s">
+      <c r="C116" s="28"/>
+      <c r="D116" s="29"/>
+      <c r="F116" s="40" t="s">
         <v>69</v>
       </c>
-      <c r="G116" s="32"/>
-      <c r="H116" s="32"/>
-      <c r="I116" s="32"/>
+      <c r="G116" s="40"/>
+      <c r="H116" s="40"/>
+      <c r="I116" s="40"/>
     </row>
     <row r="117" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B117" s="28" t="s">
+      <c r="B117" s="27" t="s">
         <v>49</v>
       </c>
-      <c r="C117" s="29"/>
-      <c r="D117" s="30"/>
-      <c r="F117" s="31" t="s">
+      <c r="C117" s="28"/>
+      <c r="D117" s="29"/>
+      <c r="F117" s="30" t="s">
         <v>56</v>
       </c>
-      <c r="G117" s="31"/>
-      <c r="H117" s="31"/>
-      <c r="I117" s="31"/>
+      <c r="G117" s="30"/>
+      <c r="H117" s="30"/>
+      <c r="I117" s="30"/>
     </row>
     <row r="118" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B118" s="28" t="s">
+      <c r="B118" s="27" t="s">
         <v>50</v>
       </c>
-      <c r="C118" s="29"/>
-      <c r="D118" s="30"/>
-      <c r="F118" s="32" t="s">
+      <c r="C118" s="28"/>
+      <c r="D118" s="29"/>
+      <c r="F118" s="40" t="s">
         <v>51</v>
       </c>
-      <c r="G118" s="32"/>
-      <c r="H118" s="32"/>
-      <c r="I118" s="32"/>
+      <c r="G118" s="40"/>
+      <c r="H118" s="40"/>
+      <c r="I118" s="40"/>
     </row>
     <row r="119" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B119" s="28" t="s">
+      <c r="B119" s="27" t="s">
         <v>47</v>
       </c>
-      <c r="C119" s="29"/>
-      <c r="D119" s="30"/>
-      <c r="F119" s="32" t="s">
+      <c r="C119" s="28"/>
+      <c r="D119" s="29"/>
+      <c r="F119" s="40" t="s">
         <v>60</v>
       </c>
-      <c r="G119" s="32"/>
-      <c r="H119" s="32"/>
-      <c r="I119" s="32"/>
+      <c r="G119" s="40"/>
+      <c r="H119" s="40"/>
+      <c r="I119" s="40"/>
     </row>
     <row r="120" spans="2:9" ht="85.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B120" s="28" t="s">
+      <c r="B120" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="C120" s="29"/>
-      <c r="D120" s="30"/>
-      <c r="F120" s="31" t="s">
+      <c r="C120" s="28"/>
+      <c r="D120" s="29"/>
+      <c r="F120" s="30" t="s">
         <v>70</v>
       </c>
-      <c r="G120" s="31"/>
-      <c r="H120" s="31"/>
-      <c r="I120" s="31"/>
+      <c r="G120" s="30"/>
+      <c r="H120" s="30"/>
+      <c r="I120" s="30"/>
     </row>
     <row r="121" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B121" s="28" t="s">
+      <c r="B121" s="27" t="s">
         <v>72</v>
       </c>
-      <c r="C121" s="29"/>
-      <c r="D121" s="30"/>
+      <c r="C121" s="28"/>
+      <c r="D121" s="29"/>
       <c r="F121" t="s">
         <v>71</v>
       </c>
@@ -4639,18 +4639,22 @@
     </row>
   </sheetData>
   <mergeCells count="42">
-    <mergeCell ref="B81:D81"/>
-    <mergeCell ref="B82:D82"/>
-    <mergeCell ref="B83:D83"/>
-    <mergeCell ref="F80:I80"/>
-    <mergeCell ref="F81:I81"/>
-    <mergeCell ref="F82:I82"/>
-    <mergeCell ref="F83:I83"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="B80:D80"/>
+    <mergeCell ref="B97:D100"/>
+    <mergeCell ref="B116:D116"/>
+    <mergeCell ref="B115:D115"/>
+    <mergeCell ref="B114:D114"/>
+    <mergeCell ref="B113:D113"/>
+    <mergeCell ref="B102:D107"/>
+    <mergeCell ref="B121:D121"/>
+    <mergeCell ref="B120:D120"/>
+    <mergeCell ref="B119:D119"/>
+    <mergeCell ref="B118:D118"/>
+    <mergeCell ref="B117:D117"/>
+    <mergeCell ref="F117:I117"/>
+    <mergeCell ref="F118:I118"/>
+    <mergeCell ref="F119:I119"/>
+    <mergeCell ref="F120:I120"/>
+    <mergeCell ref="F116:I116"/>
     <mergeCell ref="F79:I79"/>
     <mergeCell ref="B44:D44"/>
     <mergeCell ref="B45:D45"/>
@@ -4665,22 +4669,18 @@
     <mergeCell ref="F76:I76"/>
     <mergeCell ref="F77:I77"/>
     <mergeCell ref="F78:I78"/>
-    <mergeCell ref="F117:I117"/>
-    <mergeCell ref="F118:I118"/>
-    <mergeCell ref="F119:I119"/>
-    <mergeCell ref="F120:I120"/>
-    <mergeCell ref="F116:I116"/>
-    <mergeCell ref="B121:D121"/>
-    <mergeCell ref="B120:D120"/>
-    <mergeCell ref="B119:D119"/>
-    <mergeCell ref="B118:D118"/>
-    <mergeCell ref="B117:D117"/>
-    <mergeCell ref="B97:D100"/>
-    <mergeCell ref="B116:D116"/>
-    <mergeCell ref="B115:D115"/>
-    <mergeCell ref="B114:D114"/>
-    <mergeCell ref="B113:D113"/>
-    <mergeCell ref="B102:D107"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="B80:D80"/>
+    <mergeCell ref="B81:D81"/>
+    <mergeCell ref="B82:D82"/>
+    <mergeCell ref="B83:D83"/>
+    <mergeCell ref="F80:I80"/>
+    <mergeCell ref="F81:I81"/>
+    <mergeCell ref="F82:I82"/>
+    <mergeCell ref="F83:I83"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4693,7 +4693,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:R54"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D10" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D7" workbookViewId="0">
       <selection activeCell="N38" sqref="N38"/>
     </sheetView>
   </sheetViews>

--- a/doc/01. 프로젝트 설계/Server 프로토콜.xlsx
+++ b/doc/01. 프로젝트 설계/Server 프로토콜.xlsx
@@ -24,8 +24,66 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Admin</author>
+  </authors>
+  <commentList>
+    <comment ref="M6" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Admin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="O15" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Admin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="129">
   <si>
     <t>서버</t>
   </si>
@@ -819,7 +877,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -914,6 +972,19 @@
       <name val="함초롬바탕"/>
       <family val="1"/>
       <charset val="129"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -1266,6 +1337,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1277,6 +1351,21 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1298,24 +1387,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1377,7 +1448,7 @@
         <xdr:cNvPr id="3" name="직사각형 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1535,7 +1606,7 @@
         <xdr:cNvPr id="4" name="그림 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1584,7 +1655,7 @@
         <xdr:cNvPr id="3" name="직사각형 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1657,7 +1728,7 @@
         <xdr:cNvPr id="22" name="직사각형 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000016000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000016000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1730,7 +1801,7 @@
         <xdr:cNvPr id="64" name="직사각형 63">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000040000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000040000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1808,7 +1879,7 @@
         <xdr:cNvPr id="66" name="직사각형 65">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000042000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000042000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1897,7 +1968,7 @@
         <xdr:cNvPr id="158" name="직사각형 157">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00009E000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00009E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1983,7 +2054,7 @@
         <xdr:cNvPr id="74" name="직사각형 73">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000016000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000016000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2072,7 +2143,7 @@
         <xdr:cNvPr id="79" name="직사각형 78">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000016000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000016000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2182,7 +2253,7 @@
         <xdr:cNvPr id="82" name="직사각형 81">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000016000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000016000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2276,7 +2347,7 @@
         <xdr:cNvPr id="86" name="직선 화살표 연결선 85">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00002A000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00002A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2329,7 +2400,7 @@
         <xdr:cNvPr id="87" name="직사각형 86">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00009D000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00009D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2454,7 +2525,7 @@
         <xdr:cNvPr id="89" name="TextBox 88">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000095000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000095000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2533,7 +2604,7 @@
         <xdr:cNvPr id="101" name="직선 화살표 연결선 100">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00002A000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00002A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2588,7 +2659,7 @@
         <xdr:cNvPr id="102" name="TextBox 101">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000095000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000095000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2680,7 +2751,7 @@
         <xdr:cNvPr id="24" name="직사각형 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000016000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000016000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2730,6 +2801,22 @@
             </a:rPr>
             <a:t>접속확인</a:t>
           </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1000">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>,</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1000">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>제작버튼 누름</a:t>
+          </a:r>
           <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1000">
             <a:solidFill>
               <a:schemeClr val="tx1"/>
@@ -2758,7 +2845,7 @@
         <xdr:cNvPr id="29" name="TextBox 28">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000095000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000095000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2856,7 +2943,7 @@
         <xdr:cNvPr id="33" name="직사각형 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000016000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000016000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2934,7 +3021,7 @@
         <xdr:cNvPr id="34" name="직사각형 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000016000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000016000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3012,7 +3099,7 @@
         <xdr:cNvPr id="40" name="직선 화살표 연결선 39">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00002A000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00002A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3065,7 +3152,7 @@
         <xdr:cNvPr id="45" name="TextBox 44">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000095000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000095000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3157,7 +3244,7 @@
         <xdr:cNvPr id="26" name="직사각형 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000016000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000016000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3235,7 +3322,7 @@
         <xdr:cNvPr id="30" name="직사각형 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00009E000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00009E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3313,7 +3400,7 @@
         <xdr:cNvPr id="31" name="직선 화살표 연결선 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00002A000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00002A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3366,7 +3453,7 @@
         <xdr:cNvPr id="32" name="직선 화살표 연결선 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00002F000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00002F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3421,7 +3508,7 @@
         <xdr:cNvPr id="25" name="TextBox 24">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000095000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000095000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3901,41 +3988,41 @@
       </c>
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B30" s="27" t="s">
+      <c r="B30" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="C30" s="28"/>
-      <c r="D30" s="29"/>
+      <c r="C30" s="29"/>
+      <c r="D30" s="30"/>
       <c r="F30" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B31" s="31" t="s">
+      <c r="B31" s="37" t="s">
         <v>38</v>
       </c>
-      <c r="C31" s="32"/>
-      <c r="D31" s="33"/>
+      <c r="C31" s="38"/>
+      <c r="D31" s="39"/>
       <c r="F31" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B32" s="27" t="s">
+      <c r="B32" s="28" t="s">
         <v>40</v>
       </c>
-      <c r="C32" s="28"/>
-      <c r="D32" s="29"/>
+      <c r="C32" s="29"/>
+      <c r="D32" s="30"/>
       <c r="F32" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B33" s="34" t="s">
+      <c r="B33" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="C33" s="35"/>
-      <c r="D33" s="36"/>
+      <c r="C33" s="41"/>
+      <c r="D33" s="42"/>
       <c r="F33" t="s">
         <v>101</v>
       </c>
@@ -3978,95 +4065,95 @@
       </c>
     </row>
     <row r="44" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="27" t="s">
+      <c r="B44" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="C44" s="28"/>
-      <c r="D44" s="29"/>
+      <c r="C44" s="29"/>
+      <c r="D44" s="30"/>
     </row>
     <row r="45" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B45" s="27" t="s">
+      <c r="B45" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="C45" s="28"/>
-      <c r="D45" s="29"/>
+      <c r="C45" s="29"/>
+      <c r="D45" s="30"/>
     </row>
     <row r="47" spans="2:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B47" s="42" t="s">
+      <c r="B47" s="27" t="s">
         <v>115</v>
       </c>
-      <c r="C47" s="43"/>
-      <c r="D47" s="43"/>
+      <c r="C47" s="36"/>
+      <c r="D47" s="36"/>
     </row>
     <row r="48" spans="2:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B48" s="42"/>
-      <c r="C48" s="43"/>
-      <c r="D48" s="43"/>
+      <c r="B48" s="27"/>
+      <c r="C48" s="36"/>
+      <c r="D48" s="36"/>
     </row>
     <row r="49" spans="2:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B49" s="42"/>
-      <c r="C49" s="43"/>
-      <c r="D49" s="43"/>
+      <c r="B49" s="27"/>
+      <c r="C49" s="36"/>
+      <c r="D49" s="36"/>
     </row>
     <row r="50" spans="2:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B50" s="42"/>
-      <c r="C50" s="43"/>
-      <c r="D50" s="43"/>
+      <c r="B50" s="27"/>
+      <c r="C50" s="36"/>
+      <c r="D50" s="36"/>
     </row>
     <row r="51" spans="2:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B51" s="42"/>
-      <c r="C51" s="43"/>
-      <c r="D51" s="43"/>
+      <c r="B51" s="27"/>
+      <c r="C51" s="36"/>
+      <c r="D51" s="36"/>
     </row>
     <row r="52" spans="2:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B52" s="42"/>
-      <c r="C52" s="43"/>
-      <c r="D52" s="43"/>
+      <c r="B52" s="27"/>
+      <c r="C52" s="36"/>
+      <c r="D52" s="36"/>
     </row>
     <row r="53" spans="2:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B53" s="42"/>
-      <c r="C53" s="43"/>
-      <c r="D53" s="43"/>
+      <c r="B53" s="27"/>
+      <c r="C53" s="36"/>
+      <c r="D53" s="36"/>
     </row>
     <row r="54" spans="2:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B54" s="42"/>
-      <c r="C54" s="43"/>
-      <c r="D54" s="43"/>
+      <c r="B54" s="27"/>
+      <c r="C54" s="36"/>
+      <c r="D54" s="36"/>
     </row>
     <row r="55" spans="2:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B55" s="42"/>
-      <c r="C55" s="43"/>
-      <c r="D55" s="43"/>
+      <c r="B55" s="27"/>
+      <c r="C55" s="36"/>
+      <c r="D55" s="36"/>
     </row>
     <row r="56" spans="2:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B56" s="42"/>
-      <c r="C56" s="43"/>
-      <c r="D56" s="43"/>
+      <c r="B56" s="27"/>
+      <c r="C56" s="36"/>
+      <c r="D56" s="36"/>
     </row>
     <row r="57" spans="2:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B57" s="42"/>
-      <c r="C57" s="43"/>
-      <c r="D57" s="43"/>
+      <c r="B57" s="27"/>
+      <c r="C57" s="36"/>
+      <c r="D57" s="36"/>
     </row>
     <row r="58" spans="2:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B58" s="42"/>
-      <c r="C58" s="43"/>
-      <c r="D58" s="43"/>
+      <c r="B58" s="27"/>
+      <c r="C58" s="36"/>
+      <c r="D58" s="36"/>
     </row>
     <row r="59" spans="2:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B59" s="42"/>
-      <c r="C59" s="43"/>
-      <c r="D59" s="43"/>
+      <c r="B59" s="27"/>
+      <c r="C59" s="36"/>
+      <c r="D59" s="36"/>
     </row>
     <row r="60" spans="2:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B60" s="42"/>
-      <c r="C60" s="43"/>
-      <c r="D60" s="43"/>
+      <c r="B60" s="27"/>
+      <c r="C60" s="36"/>
+      <c r="D60" s="36"/>
     </row>
     <row r="61" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B61" s="43"/>
-      <c r="C61" s="43"/>
-      <c r="D61" s="43"/>
+      <c r="B61" s="36"/>
+      <c r="C61" s="36"/>
+      <c r="D61" s="36"/>
     </row>
     <row r="63" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B63" s="3" t="s">
@@ -4074,21 +4161,21 @@
       </c>
     </row>
     <row r="64" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B64" s="42" t="s">
+      <c r="B64" s="27" t="s">
         <v>117</v>
       </c>
-      <c r="C64" s="43"/>
-      <c r="D64" s="43"/>
+      <c r="C64" s="36"/>
+      <c r="D64" s="36"/>
     </row>
     <row r="65" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B65" s="43"/>
-      <c r="C65" s="43"/>
-      <c r="D65" s="43"/>
+      <c r="B65" s="36"/>
+      <c r="C65" s="36"/>
+      <c r="D65" s="36"/>
     </row>
     <row r="66" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B66" s="43"/>
-      <c r="C66" s="43"/>
-      <c r="D66" s="43"/>
+      <c r="B66" s="36"/>
+      <c r="C66" s="36"/>
+      <c r="D66" s="36"/>
     </row>
     <row r="68" spans="2:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B68" s="6" t="s">
@@ -4123,121 +4210,121 @@
       </c>
     </row>
     <row r="75" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B75" s="27" t="s">
+      <c r="B75" s="28" t="s">
         <v>55</v>
       </c>
-      <c r="C75" s="28"/>
-      <c r="D75" s="29"/>
-      <c r="F75" s="30" t="s">
+      <c r="C75" s="29"/>
+      <c r="D75" s="30"/>
+      <c r="F75" s="31" t="s">
         <v>46</v>
       </c>
-      <c r="G75" s="30"/>
-      <c r="H75" s="30"/>
-      <c r="I75" s="30"/>
+      <c r="G75" s="31"/>
+      <c r="H75" s="31"/>
+      <c r="I75" s="31"/>
     </row>
     <row r="76" spans="2:9" ht="28.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B76" s="41" t="s">
+      <c r="B76" s="33" t="s">
         <v>48</v>
       </c>
-      <c r="C76" s="38"/>
-      <c r="D76" s="39"/>
-      <c r="F76" s="40" t="s">
+      <c r="C76" s="34"/>
+      <c r="D76" s="35"/>
+      <c r="F76" s="32" t="s">
         <v>69</v>
       </c>
-      <c r="G76" s="40"/>
-      <c r="H76" s="40"/>
-      <c r="I76" s="40"/>
+      <c r="G76" s="32"/>
+      <c r="H76" s="32"/>
+      <c r="I76" s="32"/>
     </row>
     <row r="77" spans="2:9" ht="54" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B77" s="27" t="s">
+      <c r="B77" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="C77" s="28"/>
-      <c r="D77" s="29"/>
-      <c r="F77" s="30" t="s">
+      <c r="C77" s="29"/>
+      <c r="D77" s="30"/>
+      <c r="F77" s="31" t="s">
         <v>56</v>
       </c>
-      <c r="G77" s="30"/>
-      <c r="H77" s="30"/>
-      <c r="I77" s="30"/>
+      <c r="G77" s="31"/>
+      <c r="H77" s="31"/>
+      <c r="I77" s="31"/>
     </row>
     <row r="78" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B78" s="27" t="s">
+      <c r="B78" s="28" t="s">
         <v>50</v>
       </c>
-      <c r="C78" s="28"/>
-      <c r="D78" s="29"/>
-      <c r="F78" s="40" t="s">
+      <c r="C78" s="29"/>
+      <c r="D78" s="30"/>
+      <c r="F78" s="32" t="s">
         <v>105</v>
       </c>
-      <c r="G78" s="40"/>
-      <c r="H78" s="40"/>
-      <c r="I78" s="40"/>
+      <c r="G78" s="32"/>
+      <c r="H78" s="32"/>
+      <c r="I78" s="32"/>
     </row>
     <row r="79" spans="2:9" ht="31.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B79" s="27" t="s">
+      <c r="B79" s="28" t="s">
         <v>47</v>
       </c>
-      <c r="C79" s="28"/>
-      <c r="D79" s="29"/>
-      <c r="F79" s="40" t="s">
+      <c r="C79" s="29"/>
+      <c r="D79" s="30"/>
+      <c r="F79" s="32" t="s">
         <v>106</v>
       </c>
-      <c r="G79" s="40"/>
-      <c r="H79" s="40"/>
-      <c r="I79" s="40"/>
+      <c r="G79" s="32"/>
+      <c r="H79" s="32"/>
+      <c r="I79" s="32"/>
     </row>
     <row r="80" spans="2:9" ht="51.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B80" s="37" t="s">
+      <c r="B80" s="43" t="s">
         <v>108</v>
       </c>
-      <c r="C80" s="38"/>
-      <c r="D80" s="39"/>
-      <c r="F80" s="30" t="s">
+      <c r="C80" s="34"/>
+      <c r="D80" s="35"/>
+      <c r="F80" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="G80" s="30"/>
-      <c r="H80" s="30"/>
-      <c r="I80" s="30"/>
+      <c r="G80" s="31"/>
+      <c r="H80" s="31"/>
+      <c r="I80" s="31"/>
     </row>
     <row r="81" spans="2:9" ht="60" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B81" s="27" t="s">
+      <c r="B81" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="C81" s="28"/>
-      <c r="D81" s="29"/>
-      <c r="F81" s="30" t="s">
+      <c r="C81" s="29"/>
+      <c r="D81" s="30"/>
+      <c r="F81" s="31" t="s">
         <v>52</v>
       </c>
-      <c r="G81" s="30"/>
-      <c r="H81" s="30"/>
-      <c r="I81" s="30"/>
+      <c r="G81" s="31"/>
+      <c r="H81" s="31"/>
+      <c r="I81" s="31"/>
     </row>
     <row r="82" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B82" s="27" t="s">
+      <c r="B82" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="C82" s="28"/>
-      <c r="D82" s="29"/>
-      <c r="F82" s="30" t="s">
+      <c r="C82" s="29"/>
+      <c r="D82" s="30"/>
+      <c r="F82" s="31" t="s">
         <v>54</v>
       </c>
-      <c r="G82" s="30"/>
-      <c r="H82" s="30"/>
-      <c r="I82" s="30"/>
+      <c r="G82" s="31"/>
+      <c r="H82" s="31"/>
+      <c r="I82" s="31"/>
     </row>
     <row r="83" spans="2:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B83" s="27" t="s">
+      <c r="B83" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="C83" s="28"/>
-      <c r="D83" s="29"/>
-      <c r="F83" s="30" t="s">
+      <c r="C83" s="29"/>
+      <c r="D83" s="30"/>
+      <c r="F83" s="31" t="s">
         <v>61</v>
       </c>
-      <c r="G83" s="30"/>
-      <c r="H83" s="30"/>
-      <c r="I83" s="30"/>
+      <c r="G83" s="31"/>
+      <c r="H83" s="31"/>
+      <c r="I83" s="31"/>
     </row>
     <row r="85" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B85" s="16" t="s">
@@ -4355,58 +4442,58 @@
       </c>
     </row>
     <row r="97" spans="2:4" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B97" s="42" t="s">
+      <c r="B97" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="C97" s="42"/>
-      <c r="D97" s="42"/>
+      <c r="C97" s="27"/>
+      <c r="D97" s="27"/>
     </row>
     <row r="98" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B98" s="42"/>
-      <c r="C98" s="42"/>
-      <c r="D98" s="42"/>
+      <c r="B98" s="27"/>
+      <c r="C98" s="27"/>
+      <c r="D98" s="27"/>
     </row>
     <row r="99" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B99" s="42"/>
-      <c r="C99" s="42"/>
-      <c r="D99" s="42"/>
+      <c r="B99" s="27"/>
+      <c r="C99" s="27"/>
+      <c r="D99" s="27"/>
     </row>
     <row r="100" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B100" s="42"/>
-      <c r="C100" s="42"/>
-      <c r="D100" s="42"/>
+      <c r="B100" s="27"/>
+      <c r="C100" s="27"/>
+      <c r="D100" s="27"/>
     </row>
     <row r="102" spans="2:4" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B102" s="30" t="s">
+      <c r="B102" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="C102" s="30"/>
-      <c r="D102" s="30"/>
+      <c r="C102" s="31"/>
+      <c r="D102" s="31"/>
     </row>
     <row r="103" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B103" s="30"/>
-      <c r="C103" s="30"/>
-      <c r="D103" s="30"/>
+      <c r="B103" s="31"/>
+      <c r="C103" s="31"/>
+      <c r="D103" s="31"/>
     </row>
     <row r="104" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B104" s="30"/>
-      <c r="C104" s="30"/>
-      <c r="D104" s="30"/>
+      <c r="B104" s="31"/>
+      <c r="C104" s="31"/>
+      <c r="D104" s="31"/>
     </row>
     <row r="105" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B105" s="30"/>
-      <c r="C105" s="30"/>
-      <c r="D105" s="30"/>
+      <c r="B105" s="31"/>
+      <c r="C105" s="31"/>
+      <c r="D105" s="31"/>
     </row>
     <row r="106" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B106" s="30"/>
-      <c r="C106" s="30"/>
-      <c r="D106" s="30"/>
+      <c r="B106" s="31"/>
+      <c r="C106" s="31"/>
+      <c r="D106" s="31"/>
     </row>
     <row r="107" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B107" s="30"/>
-      <c r="C107" s="30"/>
-      <c r="D107" s="30"/>
+      <c r="B107" s="31"/>
+      <c r="C107" s="31"/>
+      <c r="D107" s="31"/>
     </row>
     <row r="109" spans="2:4" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B109" s="6" t="s">
@@ -4423,106 +4510,106 @@
       </c>
     </row>
     <row r="113" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B113" s="27" t="s">
+      <c r="B113" s="28" t="s">
         <v>73</v>
       </c>
-      <c r="C113" s="28"/>
-      <c r="D113" s="29"/>
+      <c r="C113" s="29"/>
+      <c r="D113" s="30"/>
       <c r="F113" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="114" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B114" s="27" t="s">
+      <c r="B114" s="28" t="s">
         <v>65</v>
       </c>
-      <c r="C114" s="28"/>
-      <c r="D114" s="29"/>
+      <c r="C114" s="29"/>
+      <c r="D114" s="30"/>
       <c r="F114" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="115" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B115" s="27" t="s">
+      <c r="B115" s="28" t="s">
         <v>66</v>
       </c>
-      <c r="C115" s="28"/>
-      <c r="D115" s="29"/>
+      <c r="C115" s="29"/>
+      <c r="D115" s="30"/>
       <c r="F115" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="116" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B116" s="27" t="s">
+      <c r="B116" s="28" t="s">
         <v>68</v>
       </c>
-      <c r="C116" s="28"/>
-      <c r="D116" s="29"/>
-      <c r="F116" s="40" t="s">
+      <c r="C116" s="29"/>
+      <c r="D116" s="30"/>
+      <c r="F116" s="32" t="s">
         <v>69</v>
       </c>
-      <c r="G116" s="40"/>
-      <c r="H116" s="40"/>
-      <c r="I116" s="40"/>
+      <c r="G116" s="32"/>
+      <c r="H116" s="32"/>
+      <c r="I116" s="32"/>
     </row>
     <row r="117" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B117" s="27" t="s">
+      <c r="B117" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="C117" s="28"/>
-      <c r="D117" s="29"/>
-      <c r="F117" s="30" t="s">
+      <c r="C117" s="29"/>
+      <c r="D117" s="30"/>
+      <c r="F117" s="31" t="s">
         <v>56</v>
       </c>
-      <c r="G117" s="30"/>
-      <c r="H117" s="30"/>
-      <c r="I117" s="30"/>
+      <c r="G117" s="31"/>
+      <c r="H117" s="31"/>
+      <c r="I117" s="31"/>
     </row>
     <row r="118" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B118" s="27" t="s">
+      <c r="B118" s="28" t="s">
         <v>50</v>
       </c>
-      <c r="C118" s="28"/>
-      <c r="D118" s="29"/>
-      <c r="F118" s="40" t="s">
+      <c r="C118" s="29"/>
+      <c r="D118" s="30"/>
+      <c r="F118" s="32" t="s">
         <v>51</v>
       </c>
-      <c r="G118" s="40"/>
-      <c r="H118" s="40"/>
-      <c r="I118" s="40"/>
+      <c r="G118" s="32"/>
+      <c r="H118" s="32"/>
+      <c r="I118" s="32"/>
     </row>
     <row r="119" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B119" s="27" t="s">
+      <c r="B119" s="28" t="s">
         <v>47</v>
       </c>
-      <c r="C119" s="28"/>
-      <c r="D119" s="29"/>
-      <c r="F119" s="40" t="s">
+      <c r="C119" s="29"/>
+      <c r="D119" s="30"/>
+      <c r="F119" s="32" t="s">
         <v>60</v>
       </c>
-      <c r="G119" s="40"/>
-      <c r="H119" s="40"/>
-      <c r="I119" s="40"/>
+      <c r="G119" s="32"/>
+      <c r="H119" s="32"/>
+      <c r="I119" s="32"/>
     </row>
     <row r="120" spans="2:9" ht="85.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B120" s="27" t="s">
+      <c r="B120" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="C120" s="28"/>
-      <c r="D120" s="29"/>
-      <c r="F120" s="30" t="s">
+      <c r="C120" s="29"/>
+      <c r="D120" s="30"/>
+      <c r="F120" s="31" t="s">
         <v>70</v>
       </c>
-      <c r="G120" s="30"/>
-      <c r="H120" s="30"/>
-      <c r="I120" s="30"/>
+      <c r="G120" s="31"/>
+      <c r="H120" s="31"/>
+      <c r="I120" s="31"/>
     </row>
     <row r="121" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B121" s="27" t="s">
+      <c r="B121" s="28" t="s">
         <v>72</v>
       </c>
-      <c r="C121" s="28"/>
-      <c r="D121" s="29"/>
+      <c r="C121" s="29"/>
+      <c r="D121" s="30"/>
       <c r="F121" t="s">
         <v>71</v>
       </c>
@@ -4639,22 +4726,18 @@
     </row>
   </sheetData>
   <mergeCells count="42">
-    <mergeCell ref="B97:D100"/>
-    <mergeCell ref="B116:D116"/>
-    <mergeCell ref="B115:D115"/>
-    <mergeCell ref="B114:D114"/>
-    <mergeCell ref="B113:D113"/>
-    <mergeCell ref="B102:D107"/>
-    <mergeCell ref="B121:D121"/>
-    <mergeCell ref="B120:D120"/>
-    <mergeCell ref="B119:D119"/>
-    <mergeCell ref="B118:D118"/>
-    <mergeCell ref="B117:D117"/>
-    <mergeCell ref="F117:I117"/>
-    <mergeCell ref="F118:I118"/>
-    <mergeCell ref="F119:I119"/>
-    <mergeCell ref="F120:I120"/>
-    <mergeCell ref="F116:I116"/>
+    <mergeCell ref="B81:D81"/>
+    <mergeCell ref="B82:D82"/>
+    <mergeCell ref="B83:D83"/>
+    <mergeCell ref="F80:I80"/>
+    <mergeCell ref="F81:I81"/>
+    <mergeCell ref="F82:I82"/>
+    <mergeCell ref="F83:I83"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="B80:D80"/>
     <mergeCell ref="F79:I79"/>
     <mergeCell ref="B44:D44"/>
     <mergeCell ref="B45:D45"/>
@@ -4669,18 +4752,22 @@
     <mergeCell ref="F76:I76"/>
     <mergeCell ref="F77:I77"/>
     <mergeCell ref="F78:I78"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="B80:D80"/>
-    <mergeCell ref="B81:D81"/>
-    <mergeCell ref="B82:D82"/>
-    <mergeCell ref="B83:D83"/>
-    <mergeCell ref="F80:I80"/>
-    <mergeCell ref="F81:I81"/>
-    <mergeCell ref="F82:I82"/>
-    <mergeCell ref="F83:I83"/>
+    <mergeCell ref="F117:I117"/>
+    <mergeCell ref="F118:I118"/>
+    <mergeCell ref="F119:I119"/>
+    <mergeCell ref="F120:I120"/>
+    <mergeCell ref="F116:I116"/>
+    <mergeCell ref="B121:D121"/>
+    <mergeCell ref="B120:D120"/>
+    <mergeCell ref="B119:D119"/>
+    <mergeCell ref="B118:D118"/>
+    <mergeCell ref="B117:D117"/>
+    <mergeCell ref="B97:D100"/>
+    <mergeCell ref="B116:D116"/>
+    <mergeCell ref="B115:D115"/>
+    <mergeCell ref="B114:D114"/>
+    <mergeCell ref="B113:D113"/>
+    <mergeCell ref="B102:D107"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4690,16 +4777,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:R54"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:U54"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D7" workbookViewId="0">
-      <selection activeCell="N38" sqref="N38"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="K39" sqref="K39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="2" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>116</v>
       </c>
@@ -4712,8 +4799,12 @@
       <c r="R2" s="15" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="3" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="T2" s="15" t="s">
+        <v>124</v>
+      </c>
+      <c r="U2" s="15"/>
+    </row>
+    <row r="3" spans="2:21" x14ac:dyDescent="0.3">
       <c r="P3" s="15">
         <v>1001</v>
       </c>
@@ -4721,8 +4812,14 @@
         <v>123</v>
       </c>
       <c r="R3" s="15"/>
-    </row>
-    <row r="4" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="T3" s="15" t="s">
+        <v>128</v>
+      </c>
+      <c r="U3" s="15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B4" s="44" t="s">
         <v>12</v>
       </c>
@@ -4744,8 +4841,14 @@
       <c r="P4" s="15"/>
       <c r="Q4" s="15"/>
       <c r="R4" s="15"/>
-    </row>
-    <row r="5" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="T4" s="15" t="s">
+        <v>125</v>
+      </c>
+      <c r="U4" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B5" s="47"/>
       <c r="C5" s="48"/>
       <c r="D5" s="48"/>
@@ -4761,8 +4864,14 @@
       <c r="P5" s="15"/>
       <c r="Q5" s="15"/>
       <c r="R5" s="15"/>
-    </row>
-    <row r="6" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="T5" s="15" t="s">
+        <v>126</v>
+      </c>
+      <c r="U5" s="15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B6" s="9"/>
       <c r="C6" s="21"/>
       <c r="D6" s="7"/>
@@ -4775,8 +4884,14 @@
       <c r="P6" s="15"/>
       <c r="Q6" s="15"/>
       <c r="R6" s="15"/>
-    </row>
-    <row r="7" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="T6" s="15" t="s">
+        <v>127</v>
+      </c>
+      <c r="U6" s="15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B7" s="9"/>
       <c r="C7" s="22"/>
       <c r="E7" s="8"/>
@@ -4789,7 +4904,7 @@
       <c r="Q7" s="15"/>
       <c r="R7" s="15"/>
     </row>
-    <row r="8" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B8" s="9"/>
       <c r="C8" s="22"/>
       <c r="E8" s="8"/>
@@ -4802,7 +4917,7 @@
       <c r="Q8" s="15"/>
       <c r="R8" s="15"/>
     </row>
-    <row r="9" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B9" s="9"/>
       <c r="C9" s="22"/>
       <c r="E9" s="8"/>
@@ -4815,7 +4930,7 @@
       <c r="Q9" s="15"/>
       <c r="R9" s="15"/>
     </row>
-    <row r="10" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B10" s="9"/>
       <c r="C10" s="22"/>
       <c r="E10" s="8"/>
@@ -4825,7 +4940,7 @@
       <c r="L10" s="25"/>
       <c r="M10" s="8"/>
     </row>
-    <row r="11" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B11" s="9"/>
       <c r="C11" s="22"/>
       <c r="E11" s="8"/>
@@ -4835,7 +4950,7 @@
       <c r="L11" s="25"/>
       <c r="M11" s="8"/>
     </row>
-    <row r="12" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B12" s="9"/>
       <c r="C12" s="22"/>
       <c r="E12" s="8"/>
@@ -4845,7 +4960,7 @@
       <c r="L12" s="25"/>
       <c r="M12" s="8"/>
     </row>
-    <row r="13" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B13" s="9"/>
       <c r="C13" s="22"/>
       <c r="E13" s="8"/>
@@ -4855,7 +4970,7 @@
       <c r="L13" s="25"/>
       <c r="M13" s="8"/>
     </row>
-    <row r="14" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B14" s="9"/>
       <c r="C14" s="22"/>
       <c r="E14" s="8"/>
@@ -4865,7 +4980,7 @@
       <c r="L14" s="25"/>
       <c r="M14" s="8"/>
     </row>
-    <row r="15" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B15" s="9"/>
       <c r="C15" s="22"/>
       <c r="E15" s="8"/>
@@ -4875,7 +4990,7 @@
       <c r="L15" s="25"/>
       <c r="M15" s="8"/>
     </row>
-    <row r="16" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B16" s="9"/>
       <c r="C16" s="22"/>
       <c r="E16" s="8"/>
@@ -5307,5 +5422,6 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
--- a/doc/01. 프로젝트 설계/Server 프로토콜.xlsx
+++ b/doc/01. 프로젝트 설계/Server 프로토콜.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\GitHub\ANU-SmartFactory-2022\doc\01. 프로젝트 설계\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\code\GitHub\ANU-SmartFactory-2022\doc\01. 프로젝트 설계\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -83,7 +83,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="125">
   <si>
     <t>서버</t>
   </si>
@@ -834,22 +834,6 @@
   </si>
   <si>
     <t>C#</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>제품 번호</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>패널</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>주사율</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>수</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -1255,7 +1239,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1337,9 +1321,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1351,21 +1332,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1388,6 +1354,24 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1405,6 +1389,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1448,7 +1435,7 @@
         <xdr:cNvPr id="3" name="직사각형 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1606,7 +1593,7 @@
         <xdr:cNvPr id="4" name="그림 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000004000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1655,7 +1642,7 @@
         <xdr:cNvPr id="3" name="직사각형 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1728,7 +1715,7 @@
         <xdr:cNvPr id="22" name="직사각형 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000016000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000016000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1801,7 +1788,7 @@
         <xdr:cNvPr id="64" name="직사각형 63">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000040000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000040000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1879,7 +1866,7 @@
         <xdr:cNvPr id="66" name="직사각형 65">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000042000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000042000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1968,7 +1955,7 @@
         <xdr:cNvPr id="158" name="직사각형 157">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00009E000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00009E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2054,7 +2041,7 @@
         <xdr:cNvPr id="74" name="직사각형 73">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000016000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000016000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2143,7 +2130,7 @@
         <xdr:cNvPr id="79" name="직사각형 78">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000016000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000016000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2253,7 +2240,7 @@
         <xdr:cNvPr id="82" name="직사각형 81">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000016000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000016000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2347,7 +2334,7 @@
         <xdr:cNvPr id="86" name="직선 화살표 연결선 85">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00002A000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00002A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2400,7 +2387,7 @@
         <xdr:cNvPr id="87" name="직사각형 86">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00009D000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00009D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2525,7 +2512,7 @@
         <xdr:cNvPr id="89" name="TextBox 88">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000095000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000095000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2604,7 +2591,7 @@
         <xdr:cNvPr id="101" name="직선 화살표 연결선 100">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00002A000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00002A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2659,7 +2646,7 @@
         <xdr:cNvPr id="102" name="TextBox 101">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000095000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000095000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2751,7 +2738,7 @@
         <xdr:cNvPr id="24" name="직사각형 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000016000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000016000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2845,7 +2832,7 @@
         <xdr:cNvPr id="29" name="TextBox 28">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000095000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000095000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2943,7 +2930,7 @@
         <xdr:cNvPr id="33" name="직사각형 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000016000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000016000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3021,7 +3008,7 @@
         <xdr:cNvPr id="34" name="직사각형 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000016000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000016000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3099,7 +3086,7 @@
         <xdr:cNvPr id="40" name="직선 화살표 연결선 39">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00002A000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00002A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3152,7 +3139,7 @@
         <xdr:cNvPr id="45" name="TextBox 44">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000095000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000095000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3244,7 +3231,7 @@
         <xdr:cNvPr id="26" name="직사각형 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000016000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000016000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3322,7 +3309,7 @@
         <xdr:cNvPr id="30" name="직사각형 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00009E000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00009E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3400,7 +3387,7 @@
         <xdr:cNvPr id="31" name="직선 화살표 연결선 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00002A000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00002A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3453,7 +3440,7 @@
         <xdr:cNvPr id="32" name="직선 화살표 연결선 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00002F000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00002F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3508,7 +3495,7 @@
         <xdr:cNvPr id="25" name="TextBox 24">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000095000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000095000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3988,41 +3975,41 @@
       </c>
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B30" s="28" t="s">
+      <c r="B30" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="C30" s="29"/>
-      <c r="D30" s="30"/>
+      <c r="C30" s="28"/>
+      <c r="D30" s="29"/>
       <c r="F30" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B31" s="37" t="s">
+      <c r="B31" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="C31" s="38"/>
-      <c r="D31" s="39"/>
+      <c r="C31" s="32"/>
+      <c r="D31" s="33"/>
       <c r="F31" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B32" s="28" t="s">
+      <c r="B32" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="C32" s="29"/>
-      <c r="D32" s="30"/>
+      <c r="C32" s="28"/>
+      <c r="D32" s="29"/>
       <c r="F32" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B33" s="40" t="s">
+      <c r="B33" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="C33" s="41"/>
-      <c r="D33" s="42"/>
+      <c r="C33" s="35"/>
+      <c r="D33" s="36"/>
       <c r="F33" t="s">
         <v>101</v>
       </c>
@@ -4065,95 +4052,95 @@
       </c>
     </row>
     <row r="44" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="28" t="s">
+      <c r="B44" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="C44" s="29"/>
-      <c r="D44" s="30"/>
+      <c r="C44" s="28"/>
+      <c r="D44" s="29"/>
     </row>
     <row r="45" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B45" s="28" t="s">
+      <c r="B45" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="C45" s="29"/>
-      <c r="D45" s="30"/>
+      <c r="C45" s="28"/>
+      <c r="D45" s="29"/>
     </row>
     <row r="47" spans="2:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B47" s="27" t="s">
+      <c r="B47" s="42" t="s">
         <v>115</v>
       </c>
-      <c r="C47" s="36"/>
-      <c r="D47" s="36"/>
+      <c r="C47" s="43"/>
+      <c r="D47" s="43"/>
     </row>
     <row r="48" spans="2:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B48" s="27"/>
-      <c r="C48" s="36"/>
-      <c r="D48" s="36"/>
+      <c r="B48" s="42"/>
+      <c r="C48" s="43"/>
+      <c r="D48" s="43"/>
     </row>
     <row r="49" spans="2:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B49" s="27"/>
-      <c r="C49" s="36"/>
-      <c r="D49" s="36"/>
+      <c r="B49" s="42"/>
+      <c r="C49" s="43"/>
+      <c r="D49" s="43"/>
     </row>
     <row r="50" spans="2:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B50" s="27"/>
-      <c r="C50" s="36"/>
-      <c r="D50" s="36"/>
+      <c r="B50" s="42"/>
+      <c r="C50" s="43"/>
+      <c r="D50" s="43"/>
     </row>
     <row r="51" spans="2:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B51" s="27"/>
-      <c r="C51" s="36"/>
-      <c r="D51" s="36"/>
+      <c r="B51" s="42"/>
+      <c r="C51" s="43"/>
+      <c r="D51" s="43"/>
     </row>
     <row r="52" spans="2:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B52" s="27"/>
-      <c r="C52" s="36"/>
-      <c r="D52" s="36"/>
+      <c r="B52" s="42"/>
+      <c r="C52" s="43"/>
+      <c r="D52" s="43"/>
     </row>
     <row r="53" spans="2:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B53" s="27"/>
-      <c r="C53" s="36"/>
-      <c r="D53" s="36"/>
+      <c r="B53" s="42"/>
+      <c r="C53" s="43"/>
+      <c r="D53" s="43"/>
     </row>
     <row r="54" spans="2:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B54" s="27"/>
-      <c r="C54" s="36"/>
-      <c r="D54" s="36"/>
+      <c r="B54" s="42"/>
+      <c r="C54" s="43"/>
+      <c r="D54" s="43"/>
     </row>
     <row r="55" spans="2:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B55" s="27"/>
-      <c r="C55" s="36"/>
-      <c r="D55" s="36"/>
+      <c r="B55" s="42"/>
+      <c r="C55" s="43"/>
+      <c r="D55" s="43"/>
     </row>
     <row r="56" spans="2:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B56" s="27"/>
-      <c r="C56" s="36"/>
-      <c r="D56" s="36"/>
+      <c r="B56" s="42"/>
+      <c r="C56" s="43"/>
+      <c r="D56" s="43"/>
     </row>
     <row r="57" spans="2:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B57" s="27"/>
-      <c r="C57" s="36"/>
-      <c r="D57" s="36"/>
+      <c r="B57" s="42"/>
+      <c r="C57" s="43"/>
+      <c r="D57" s="43"/>
     </row>
     <row r="58" spans="2:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B58" s="27"/>
-      <c r="C58" s="36"/>
-      <c r="D58" s="36"/>
+      <c r="B58" s="42"/>
+      <c r="C58" s="43"/>
+      <c r="D58" s="43"/>
     </row>
     <row r="59" spans="2:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B59" s="27"/>
-      <c r="C59" s="36"/>
-      <c r="D59" s="36"/>
+      <c r="B59" s="42"/>
+      <c r="C59" s="43"/>
+      <c r="D59" s="43"/>
     </row>
     <row r="60" spans="2:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B60" s="27"/>
-      <c r="C60" s="36"/>
-      <c r="D60" s="36"/>
+      <c r="B60" s="42"/>
+      <c r="C60" s="43"/>
+      <c r="D60" s="43"/>
     </row>
     <row r="61" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B61" s="36"/>
-      <c r="C61" s="36"/>
-      <c r="D61" s="36"/>
+      <c r="B61" s="43"/>
+      <c r="C61" s="43"/>
+      <c r="D61" s="43"/>
     </row>
     <row r="63" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B63" s="3" t="s">
@@ -4161,21 +4148,21 @@
       </c>
     </row>
     <row r="64" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B64" s="27" t="s">
+      <c r="B64" s="42" t="s">
         <v>117</v>
       </c>
-      <c r="C64" s="36"/>
-      <c r="D64" s="36"/>
+      <c r="C64" s="43"/>
+      <c r="D64" s="43"/>
     </row>
     <row r="65" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B65" s="36"/>
-      <c r="C65" s="36"/>
-      <c r="D65" s="36"/>
+      <c r="B65" s="43"/>
+      <c r="C65" s="43"/>
+      <c r="D65" s="43"/>
     </row>
     <row r="66" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B66" s="36"/>
-      <c r="C66" s="36"/>
-      <c r="D66" s="36"/>
+      <c r="B66" s="43"/>
+      <c r="C66" s="43"/>
+      <c r="D66" s="43"/>
     </row>
     <row r="68" spans="2:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B68" s="6" t="s">
@@ -4210,121 +4197,121 @@
       </c>
     </row>
     <row r="75" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B75" s="28" t="s">
+      <c r="B75" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="C75" s="29"/>
-      <c r="D75" s="30"/>
-      <c r="F75" s="31" t="s">
+      <c r="C75" s="28"/>
+      <c r="D75" s="29"/>
+      <c r="F75" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="G75" s="31"/>
-      <c r="H75" s="31"/>
-      <c r="I75" s="31"/>
+      <c r="G75" s="30"/>
+      <c r="H75" s="30"/>
+      <c r="I75" s="30"/>
     </row>
     <row r="76" spans="2:9" ht="28.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B76" s="33" t="s">
+      <c r="B76" s="41" t="s">
         <v>48</v>
       </c>
-      <c r="C76" s="34"/>
-      <c r="D76" s="35"/>
-      <c r="F76" s="32" t="s">
+      <c r="C76" s="38"/>
+      <c r="D76" s="39"/>
+      <c r="F76" s="40" t="s">
         <v>69</v>
       </c>
-      <c r="G76" s="32"/>
-      <c r="H76" s="32"/>
-      <c r="I76" s="32"/>
+      <c r="G76" s="40"/>
+      <c r="H76" s="40"/>
+      <c r="I76" s="40"/>
     </row>
     <row r="77" spans="2:9" ht="54" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B77" s="28" t="s">
+      <c r="B77" s="27" t="s">
         <v>49</v>
       </c>
-      <c r="C77" s="29"/>
-      <c r="D77" s="30"/>
-      <c r="F77" s="31" t="s">
+      <c r="C77" s="28"/>
+      <c r="D77" s="29"/>
+      <c r="F77" s="30" t="s">
         <v>56</v>
       </c>
-      <c r="G77" s="31"/>
-      <c r="H77" s="31"/>
-      <c r="I77" s="31"/>
+      <c r="G77" s="30"/>
+      <c r="H77" s="30"/>
+      <c r="I77" s="30"/>
     </row>
     <row r="78" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B78" s="28" t="s">
+      <c r="B78" s="27" t="s">
         <v>50</v>
       </c>
-      <c r="C78" s="29"/>
-      <c r="D78" s="30"/>
-      <c r="F78" s="32" t="s">
+      <c r="C78" s="28"/>
+      <c r="D78" s="29"/>
+      <c r="F78" s="40" t="s">
         <v>105</v>
       </c>
-      <c r="G78" s="32"/>
-      <c r="H78" s="32"/>
-      <c r="I78" s="32"/>
+      <c r="G78" s="40"/>
+      <c r="H78" s="40"/>
+      <c r="I78" s="40"/>
     </row>
     <row r="79" spans="2:9" ht="31.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B79" s="28" t="s">
+      <c r="B79" s="27" t="s">
         <v>47</v>
       </c>
-      <c r="C79" s="29"/>
-      <c r="D79" s="30"/>
-      <c r="F79" s="32" t="s">
+      <c r="C79" s="28"/>
+      <c r="D79" s="29"/>
+      <c r="F79" s="40" t="s">
         <v>106</v>
       </c>
-      <c r="G79" s="32"/>
-      <c r="H79" s="32"/>
-      <c r="I79" s="32"/>
+      <c r="G79" s="40"/>
+      <c r="H79" s="40"/>
+      <c r="I79" s="40"/>
     </row>
     <row r="80" spans="2:9" ht="51.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B80" s="43" t="s">
+      <c r="B80" s="37" t="s">
         <v>108</v>
       </c>
-      <c r="C80" s="34"/>
-      <c r="D80" s="35"/>
-      <c r="F80" s="31" t="s">
+      <c r="C80" s="38"/>
+      <c r="D80" s="39"/>
+      <c r="F80" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="G80" s="31"/>
-      <c r="H80" s="31"/>
-      <c r="I80" s="31"/>
+      <c r="G80" s="30"/>
+      <c r="H80" s="30"/>
+      <c r="I80" s="30"/>
     </row>
     <row r="81" spans="2:9" ht="60" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B81" s="28" t="s">
+      <c r="B81" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="C81" s="29"/>
-      <c r="D81" s="30"/>
-      <c r="F81" s="31" t="s">
+      <c r="C81" s="28"/>
+      <c r="D81" s="29"/>
+      <c r="F81" s="30" t="s">
         <v>52</v>
       </c>
-      <c r="G81" s="31"/>
-      <c r="H81" s="31"/>
-      <c r="I81" s="31"/>
+      <c r="G81" s="30"/>
+      <c r="H81" s="30"/>
+      <c r="I81" s="30"/>
     </row>
     <row r="82" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B82" s="28" t="s">
+      <c r="B82" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="C82" s="29"/>
-      <c r="D82" s="30"/>
-      <c r="F82" s="31" t="s">
+      <c r="C82" s="28"/>
+      <c r="D82" s="29"/>
+      <c r="F82" s="30" t="s">
         <v>54</v>
       </c>
-      <c r="G82" s="31"/>
-      <c r="H82" s="31"/>
-      <c r="I82" s="31"/>
+      <c r="G82" s="30"/>
+      <c r="H82" s="30"/>
+      <c r="I82" s="30"/>
     </row>
     <row r="83" spans="2:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B83" s="28" t="s">
+      <c r="B83" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="C83" s="29"/>
-      <c r="D83" s="30"/>
-      <c r="F83" s="31" t="s">
+      <c r="C83" s="28"/>
+      <c r="D83" s="29"/>
+      <c r="F83" s="30" t="s">
         <v>61</v>
       </c>
-      <c r="G83" s="31"/>
-      <c r="H83" s="31"/>
-      <c r="I83" s="31"/>
+      <c r="G83" s="30"/>
+      <c r="H83" s="30"/>
+      <c r="I83" s="30"/>
     </row>
     <row r="85" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B85" s="16" t="s">
@@ -4442,58 +4429,58 @@
       </c>
     </row>
     <row r="97" spans="2:4" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B97" s="27" t="s">
+      <c r="B97" s="42" t="s">
         <v>32</v>
       </c>
-      <c r="C97" s="27"/>
-      <c r="D97" s="27"/>
+      <c r="C97" s="42"/>
+      <c r="D97" s="42"/>
     </row>
     <row r="98" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B98" s="27"/>
-      <c r="C98" s="27"/>
-      <c r="D98" s="27"/>
+      <c r="B98" s="42"/>
+      <c r="C98" s="42"/>
+      <c r="D98" s="42"/>
     </row>
     <row r="99" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B99" s="27"/>
-      <c r="C99" s="27"/>
-      <c r="D99" s="27"/>
+      <c r="B99" s="42"/>
+      <c r="C99" s="42"/>
+      <c r="D99" s="42"/>
     </row>
     <row r="100" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B100" s="27"/>
-      <c r="C100" s="27"/>
-      <c r="D100" s="27"/>
+      <c r="B100" s="42"/>
+      <c r="C100" s="42"/>
+      <c r="D100" s="42"/>
     </row>
     <row r="102" spans="2:4" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B102" s="31" t="s">
+      <c r="B102" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="C102" s="31"/>
-      <c r="D102" s="31"/>
+      <c r="C102" s="30"/>
+      <c r="D102" s="30"/>
     </row>
     <row r="103" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B103" s="31"/>
-      <c r="C103" s="31"/>
-      <c r="D103" s="31"/>
+      <c r="B103" s="30"/>
+      <c r="C103" s="30"/>
+      <c r="D103" s="30"/>
     </row>
     <row r="104" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B104" s="31"/>
-      <c r="C104" s="31"/>
-      <c r="D104" s="31"/>
+      <c r="B104" s="30"/>
+      <c r="C104" s="30"/>
+      <c r="D104" s="30"/>
     </row>
     <row r="105" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B105" s="31"/>
-      <c r="C105" s="31"/>
-      <c r="D105" s="31"/>
+      <c r="B105" s="30"/>
+      <c r="C105" s="30"/>
+      <c r="D105" s="30"/>
     </row>
     <row r="106" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B106" s="31"/>
-      <c r="C106" s="31"/>
-      <c r="D106" s="31"/>
+      <c r="B106" s="30"/>
+      <c r="C106" s="30"/>
+      <c r="D106" s="30"/>
     </row>
     <row r="107" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B107" s="31"/>
-      <c r="C107" s="31"/>
-      <c r="D107" s="31"/>
+      <c r="B107" s="30"/>
+      <c r="C107" s="30"/>
+      <c r="D107" s="30"/>
     </row>
     <row r="109" spans="2:4" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B109" s="6" t="s">
@@ -4510,106 +4497,106 @@
       </c>
     </row>
     <row r="113" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B113" s="28" t="s">
+      <c r="B113" s="27" t="s">
         <v>73</v>
       </c>
-      <c r="C113" s="29"/>
-      <c r="D113" s="30"/>
+      <c r="C113" s="28"/>
+      <c r="D113" s="29"/>
       <c r="F113" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="114" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B114" s="28" t="s">
+      <c r="B114" s="27" t="s">
         <v>65</v>
       </c>
-      <c r="C114" s="29"/>
-      <c r="D114" s="30"/>
+      <c r="C114" s="28"/>
+      <c r="D114" s="29"/>
       <c r="F114" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="115" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B115" s="28" t="s">
+      <c r="B115" s="27" t="s">
         <v>66</v>
       </c>
-      <c r="C115" s="29"/>
-      <c r="D115" s="30"/>
+      <c r="C115" s="28"/>
+      <c r="D115" s="29"/>
       <c r="F115" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="116" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B116" s="28" t="s">
+      <c r="B116" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="C116" s="29"/>
-      <c r="D116" s="30"/>
-      <c r="F116" s="32" t="s">
+      <c r="C116" s="28"/>
+      <c r="D116" s="29"/>
+      <c r="F116" s="40" t="s">
         <v>69</v>
       </c>
-      <c r="G116" s="32"/>
-      <c r="H116" s="32"/>
-      <c r="I116" s="32"/>
+      <c r="G116" s="40"/>
+      <c r="H116" s="40"/>
+      <c r="I116" s="40"/>
     </row>
     <row r="117" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B117" s="28" t="s">
+      <c r="B117" s="27" t="s">
         <v>49</v>
       </c>
-      <c r="C117" s="29"/>
-      <c r="D117" s="30"/>
-      <c r="F117" s="31" t="s">
+      <c r="C117" s="28"/>
+      <c r="D117" s="29"/>
+      <c r="F117" s="30" t="s">
         <v>56</v>
       </c>
-      <c r="G117" s="31"/>
-      <c r="H117" s="31"/>
-      <c r="I117" s="31"/>
+      <c r="G117" s="30"/>
+      <c r="H117" s="30"/>
+      <c r="I117" s="30"/>
     </row>
     <row r="118" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B118" s="28" t="s">
+      <c r="B118" s="27" t="s">
         <v>50</v>
       </c>
-      <c r="C118" s="29"/>
-      <c r="D118" s="30"/>
-      <c r="F118" s="32" t="s">
+      <c r="C118" s="28"/>
+      <c r="D118" s="29"/>
+      <c r="F118" s="40" t="s">
         <v>51</v>
       </c>
-      <c r="G118" s="32"/>
-      <c r="H118" s="32"/>
-      <c r="I118" s="32"/>
+      <c r="G118" s="40"/>
+      <c r="H118" s="40"/>
+      <c r="I118" s="40"/>
     </row>
     <row r="119" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B119" s="28" t="s">
+      <c r="B119" s="27" t="s">
         <v>47</v>
       </c>
-      <c r="C119" s="29"/>
-      <c r="D119" s="30"/>
-      <c r="F119" s="32" t="s">
+      <c r="C119" s="28"/>
+      <c r="D119" s="29"/>
+      <c r="F119" s="40" t="s">
         <v>60</v>
       </c>
-      <c r="G119" s="32"/>
-      <c r="H119" s="32"/>
-      <c r="I119" s="32"/>
+      <c r="G119" s="40"/>
+      <c r="H119" s="40"/>
+      <c r="I119" s="40"/>
     </row>
     <row r="120" spans="2:9" ht="85.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B120" s="28" t="s">
+      <c r="B120" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="C120" s="29"/>
-      <c r="D120" s="30"/>
-      <c r="F120" s="31" t="s">
+      <c r="C120" s="28"/>
+      <c r="D120" s="29"/>
+      <c r="F120" s="30" t="s">
         <v>70</v>
       </c>
-      <c r="G120" s="31"/>
-      <c r="H120" s="31"/>
-      <c r="I120" s="31"/>
+      <c r="G120" s="30"/>
+      <c r="H120" s="30"/>
+      <c r="I120" s="30"/>
     </row>
     <row r="121" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B121" s="28" t="s">
+      <c r="B121" s="27" t="s">
         <v>72</v>
       </c>
-      <c r="C121" s="29"/>
-      <c r="D121" s="30"/>
+      <c r="C121" s="28"/>
+      <c r="D121" s="29"/>
       <c r="F121" t="s">
         <v>71</v>
       </c>
@@ -4726,18 +4713,22 @@
     </row>
   </sheetData>
   <mergeCells count="42">
-    <mergeCell ref="B81:D81"/>
-    <mergeCell ref="B82:D82"/>
-    <mergeCell ref="B83:D83"/>
-    <mergeCell ref="F80:I80"/>
-    <mergeCell ref="F81:I81"/>
-    <mergeCell ref="F82:I82"/>
-    <mergeCell ref="F83:I83"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="B80:D80"/>
+    <mergeCell ref="B97:D100"/>
+    <mergeCell ref="B116:D116"/>
+    <mergeCell ref="B115:D115"/>
+    <mergeCell ref="B114:D114"/>
+    <mergeCell ref="B113:D113"/>
+    <mergeCell ref="B102:D107"/>
+    <mergeCell ref="B121:D121"/>
+    <mergeCell ref="B120:D120"/>
+    <mergeCell ref="B119:D119"/>
+    <mergeCell ref="B118:D118"/>
+    <mergeCell ref="B117:D117"/>
+    <mergeCell ref="F117:I117"/>
+    <mergeCell ref="F118:I118"/>
+    <mergeCell ref="F119:I119"/>
+    <mergeCell ref="F120:I120"/>
+    <mergeCell ref="F116:I116"/>
     <mergeCell ref="F79:I79"/>
     <mergeCell ref="B44:D44"/>
     <mergeCell ref="B45:D45"/>
@@ -4752,22 +4743,18 @@
     <mergeCell ref="F76:I76"/>
     <mergeCell ref="F77:I77"/>
     <mergeCell ref="F78:I78"/>
-    <mergeCell ref="F117:I117"/>
-    <mergeCell ref="F118:I118"/>
-    <mergeCell ref="F119:I119"/>
-    <mergeCell ref="F120:I120"/>
-    <mergeCell ref="F116:I116"/>
-    <mergeCell ref="B121:D121"/>
-    <mergeCell ref="B120:D120"/>
-    <mergeCell ref="B119:D119"/>
-    <mergeCell ref="B118:D118"/>
-    <mergeCell ref="B117:D117"/>
-    <mergeCell ref="B97:D100"/>
-    <mergeCell ref="B116:D116"/>
-    <mergeCell ref="B115:D115"/>
-    <mergeCell ref="B114:D114"/>
-    <mergeCell ref="B113:D113"/>
-    <mergeCell ref="B102:D107"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="B80:D80"/>
+    <mergeCell ref="B81:D81"/>
+    <mergeCell ref="B82:D82"/>
+    <mergeCell ref="B83:D83"/>
+    <mergeCell ref="F80:I80"/>
+    <mergeCell ref="F81:I81"/>
+    <mergeCell ref="F82:I82"/>
+    <mergeCell ref="F83:I83"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4780,8 +4767,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:U54"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="K39" sqref="K39"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="O30" sqref="O30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4790,34 +4777,18 @@
       <c r="B2" t="s">
         <v>116</v>
       </c>
-      <c r="P2" s="15" t="s">
-        <v>120</v>
-      </c>
-      <c r="Q2" s="15" t="s">
-        <v>121</v>
-      </c>
-      <c r="R2" s="15" t="s">
-        <v>122</v>
-      </c>
-      <c r="T2" s="15" t="s">
-        <v>124</v>
-      </c>
-      <c r="U2" s="15"/>
+      <c r="P2" s="50"/>
+      <c r="Q2" s="50"/>
+      <c r="R2" s="50"/>
+      <c r="T2" s="50"/>
+      <c r="U2" s="50"/>
     </row>
     <row r="3" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="P3" s="15">
-        <v>1001</v>
-      </c>
-      <c r="Q3" s="15" t="s">
-        <v>123</v>
-      </c>
-      <c r="R3" s="15"/>
-      <c r="T3" s="15" t="s">
-        <v>128</v>
-      </c>
-      <c r="U3" s="15">
-        <v>2</v>
-      </c>
+      <c r="P3" s="50"/>
+      <c r="Q3" s="50"/>
+      <c r="R3" s="50"/>
+      <c r="T3" s="50"/>
+      <c r="U3" s="50"/>
     </row>
     <row r="4" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B4" s="44" t="s">
@@ -4838,15 +4809,11 @@
       <c r="K4" s="45"/>
       <c r="L4" s="45"/>
       <c r="M4" s="46"/>
-      <c r="P4" s="15"/>
-      <c r="Q4" s="15"/>
-      <c r="R4" s="15"/>
-      <c r="T4" s="15" t="s">
-        <v>125</v>
-      </c>
-      <c r="U4" s="15">
-        <v>1</v>
-      </c>
+      <c r="P4" s="50"/>
+      <c r="Q4" s="50"/>
+      <c r="R4" s="50"/>
+      <c r="T4" s="50"/>
+      <c r="U4" s="50"/>
     </row>
     <row r="5" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B5" s="47"/>
@@ -4861,15 +4828,11 @@
       <c r="K5" s="48"/>
       <c r="L5" s="48"/>
       <c r="M5" s="49"/>
-      <c r="P5" s="15"/>
-      <c r="Q5" s="15"/>
-      <c r="R5" s="15"/>
-      <c r="T5" s="15" t="s">
-        <v>126</v>
-      </c>
-      <c r="U5" s="15">
-        <v>3</v>
-      </c>
+      <c r="P5" s="50"/>
+      <c r="Q5" s="50"/>
+      <c r="R5" s="50"/>
+      <c r="T5" s="50"/>
+      <c r="U5" s="50"/>
     </row>
     <row r="6" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B6" s="9"/>
@@ -4881,15 +4844,11 @@
       <c r="I6" s="8"/>
       <c r="L6" s="24"/>
       <c r="M6" s="8"/>
-      <c r="P6" s="15"/>
-      <c r="Q6" s="15"/>
-      <c r="R6" s="15"/>
-      <c r="T6" s="15" t="s">
-        <v>127</v>
-      </c>
-      <c r="U6" s="15">
-        <v>4</v>
-      </c>
+      <c r="P6" s="50"/>
+      <c r="Q6" s="50"/>
+      <c r="R6" s="50"/>
+      <c r="T6" s="50"/>
+      <c r="U6" s="50"/>
     </row>
     <row r="7" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B7" s="9"/>
@@ -4900,9 +4859,9 @@
       <c r="I7" s="8"/>
       <c r="L7" s="25"/>
       <c r="M7" s="8"/>
-      <c r="P7" s="15"/>
-      <c r="Q7" s="15"/>
-      <c r="R7" s="15"/>
+      <c r="P7" s="50"/>
+      <c r="Q7" s="50"/>
+      <c r="R7" s="50"/>
     </row>
     <row r="8" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B8" s="9"/>
@@ -4913,9 +4872,9 @@
       <c r="I8" s="8"/>
       <c r="L8" s="25"/>
       <c r="M8" s="8"/>
-      <c r="P8" s="15"/>
-      <c r="Q8" s="15"/>
-      <c r="R8" s="15"/>
+      <c r="P8" s="50"/>
+      <c r="Q8" s="50"/>
+      <c r="R8" s="50"/>
     </row>
     <row r="9" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B9" s="9"/>
@@ -4926,9 +4885,9 @@
       <c r="I9" s="8"/>
       <c r="L9" s="25"/>
       <c r="M9" s="8"/>
-      <c r="P9" s="15"/>
-      <c r="Q9" s="15"/>
-      <c r="R9" s="15"/>
+      <c r="P9" s="50"/>
+      <c r="Q9" s="50"/>
+      <c r="R9" s="50"/>
     </row>
     <row r="10" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B10" s="9"/>
@@ -4979,6 +4938,8 @@
       <c r="I14" s="8"/>
       <c r="L14" s="25"/>
       <c r="M14" s="8"/>
+      <c r="O14" s="50"/>
+      <c r="P14" s="50"/>
     </row>
     <row r="15" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B15" s="9"/>
@@ -4989,6 +4950,8 @@
       <c r="I15" s="8"/>
       <c r="L15" s="25"/>
       <c r="M15" s="8"/>
+      <c r="O15" s="50"/>
+      <c r="P15" s="50"/>
     </row>
     <row r="16" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B16" s="9"/>
@@ -4999,6 +4962,8 @@
       <c r="I16" s="8"/>
       <c r="L16" s="25"/>
       <c r="M16" s="8"/>
+      <c r="O16" s="50"/>
+      <c r="P16" s="50"/>
     </row>
     <row r="17" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B17" s="9"/>
@@ -5050,7 +5015,7 @@
       <c r="L21" s="25"/>
       <c r="M21" s="8"/>
       <c r="O21" s="15" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="P21" s="15"/>
     </row>
@@ -5064,7 +5029,7 @@
       <c r="L22" s="25"/>
       <c r="M22" s="8"/>
       <c r="O22" s="15" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="P22" s="15">
         <v>2</v>
@@ -5080,7 +5045,7 @@
       <c r="L23" s="25"/>
       <c r="M23" s="8"/>
       <c r="O23" s="15" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="P23" s="15">
         <v>1</v>
@@ -5096,7 +5061,7 @@
       <c r="L24" s="25"/>
       <c r="M24" s="8"/>
       <c r="O24" s="15" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="P24" s="15">
         <v>3</v>
@@ -5112,7 +5077,7 @@
       <c r="L25" s="25"/>
       <c r="M25" s="8"/>
       <c r="O25" s="15" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="P25" s="15">
         <v>4</v>

--- a/doc/01. 프로젝트 설계/Server 프로토콜.xlsx
+++ b/doc/01. 프로젝트 설계/Server 프로토콜.xlsx
@@ -1337,9 +1337,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1351,21 +1348,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1387,6 +1369,24 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1448,7 +1448,7 @@
         <xdr:cNvPr id="3" name="직사각형 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1606,7 +1606,7 @@
         <xdr:cNvPr id="4" name="그림 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000004000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1640,22 +1640,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>20955</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>171451</xdr:rowOff>
+      <xdr:colOff>20956</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>85726</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>34290</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:colOff>9526</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="3" name="직사각형 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1663,8 +1663,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5050155" y="2266951"/>
-          <a:ext cx="1689735" cy="333374"/>
+          <a:off x="5050156" y="2600326"/>
+          <a:ext cx="1664970" cy="333374"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1713,22 +1713,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>36195</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>97155</xdr:rowOff>
+      <xdr:colOff>26669</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>116205</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>120015</xdr:rowOff>
+      <xdr:colOff>9524</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>139065</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="22" name="직사각형 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000016000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000016000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1736,8 +1736,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5065395" y="2611755"/>
-          <a:ext cx="1668780" cy="441960"/>
+          <a:off x="5055869" y="3049905"/>
+          <a:ext cx="1659255" cy="441960"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1801,7 +1801,7 @@
         <xdr:cNvPr id="64" name="직사각형 63">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000040000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000040000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1879,7 +1879,7 @@
         <xdr:cNvPr id="66" name="직사각형 65">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000042000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000042000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1968,7 +1968,7 @@
         <xdr:cNvPr id="158" name="직사각형 157">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00009E000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00009E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2039,22 +2039,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>59055</xdr:colOff>
+      <xdr:colOff>20954</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>22860</xdr:rowOff>
+      <xdr:rowOff>60960</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>737235</xdr:colOff>
+      <xdr:colOff>838199</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>45720</xdr:rowOff>
+      <xdr:rowOff>83820</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="74" name="직사각형 73">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000016000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000016000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2062,8 +2062,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5088255" y="3585210"/>
-          <a:ext cx="1516380" cy="441960"/>
+          <a:off x="5050154" y="3623310"/>
+          <a:ext cx="1655445" cy="441960"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2143,7 +2143,7 @@
         <xdr:cNvPr id="79" name="직사각형 78">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000016000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000016000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2238,13 +2238,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>49530</xdr:colOff>
+      <xdr:colOff>9526</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>70485</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>41910</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>828676</xdr:colOff>
       <xdr:row>22</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
@@ -2253,7 +2253,7 @@
         <xdr:cNvPr id="82" name="직사각형 81">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000016000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000016000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2261,8 +2261,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5078730" y="4261485"/>
-          <a:ext cx="1668780" cy="424815"/>
+          <a:off x="5038726" y="4261485"/>
+          <a:ext cx="1657350" cy="424815"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2347,7 +2347,7 @@
         <xdr:cNvPr id="86" name="직선 화살표 연결선 85">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00002A000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00002A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2400,7 +2400,7 @@
         <xdr:cNvPr id="87" name="직사각형 86">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00009D000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00009D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2525,7 +2525,7 @@
         <xdr:cNvPr id="89" name="TextBox 88">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000095000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000095000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2604,7 +2604,7 @@
         <xdr:cNvPr id="101" name="직선 화살표 연결선 100">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00002A000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00002A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2659,7 +2659,7 @@
         <xdr:cNvPr id="102" name="TextBox 101">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000095000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000095000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2736,22 +2736,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>20955</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>184785</xdr:rowOff>
+      <xdr:colOff>40005</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>32385</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="24" name="직사각형 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000016000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000016000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2759,7 +2759,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8410575" y="1838325"/>
+          <a:off x="8429625" y="2105025"/>
           <a:ext cx="1668780" cy="441960"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2819,7 +2819,61 @@
           </a:r>
           <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1000">
             <a:solidFill>
-              <a:schemeClr val="tx1"/>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1000">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+            </a:rPr>
+            <a:t>STATE </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1000">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+            </a:rPr>
+            <a:t>값 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1000">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+            </a:rPr>
+            <a:t>WAIT</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1000" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1000" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+            </a:rPr>
+            <a:t>변경</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1000">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
             </a:solidFill>
           </a:endParaRPr>
         </a:p>
@@ -2830,22 +2884,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>200025</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>590550</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:colOff>657225</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="29" name="TextBox 28">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000095000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000095000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2853,7 +2907,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6905625" y="1809750"/>
+          <a:off x="6972300" y="2495550"/>
           <a:ext cx="1228725" cy="219075"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2930,20 +2984,20 @@
       <xdr:col>10</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>30480</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>146685</xdr:rowOff>
+      <xdr:rowOff>70485</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="33" name="직사각형 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000016000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000016000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2951,7 +3005,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8420100" y="1171575"/>
+          <a:off x="8420100" y="1095375"/>
           <a:ext cx="1668780" cy="441960"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3006,22 +3060,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>20955</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>51435</xdr:rowOff>
+      <xdr:colOff>11430</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="34" name="직사각형 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000016000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000016000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3029,7 +3083,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5057775" y="1495425"/>
+          <a:off x="5048250" y="1123950"/>
           <a:ext cx="1668780" cy="441960"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3099,7 +3153,7 @@
         <xdr:cNvPr id="40" name="직선 화살표 연결선 39">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00002A000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00002A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3152,7 +3206,7 @@
         <xdr:cNvPr id="45" name="TextBox 44">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000095000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000095000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3244,7 +3298,7 @@
         <xdr:cNvPr id="26" name="직사각형 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000016000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000016000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3322,7 +3376,7 @@
         <xdr:cNvPr id="30" name="직사각형 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00009E000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00009E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3400,7 +3454,7 @@
         <xdr:cNvPr id="31" name="직선 화살표 연결선 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00002A000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00002A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3438,22 +3492,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>173355</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>20955</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="32" name="직선 화살표 연결선 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00002F000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00002F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3463,8 +3517,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="5895975" y="2059305"/>
-          <a:ext cx="2514600" cy="7620"/>
+          <a:off x="5867400" y="2326005"/>
+          <a:ext cx="2562225" cy="198120"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -3508,7 +3562,7 @@
         <xdr:cNvPr id="25" name="TextBox 24">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000095000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000095000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3576,6 +3630,468 @@
           </a:r>
           <a:endParaRPr lang="ko-KR" altLang="ko-KR" sz="1000">
             <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="27" name="직사각형 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00009E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9220200" y="8229600"/>
+          <a:ext cx="1684020" cy="461010"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1000">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>STATE</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1000" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1000" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>값 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1000" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>WAIT </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1000" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>으로 변경</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1000">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>11430</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>13335</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="28" name="직사각형 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000016000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5048250" y="1666875"/>
+          <a:ext cx="1668780" cy="441960"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1000">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>상태확인</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1000">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>828675</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="35" name="직선 화살표 연결선 34">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00002A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="6743700" y="1838325"/>
+          <a:ext cx="2466975" cy="28575"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="36" name="TextBox 35">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000095000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6962775" y="1609725"/>
+          <a:ext cx="1228725" cy="219075"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1000">
+              <a:effectLst/>
+            </a:rPr>
+            <a:t>STATE</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="ko-KR" sz="1000">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>781050</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>38101</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="37" name="직사각형 36">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00009E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8324850" y="3390901"/>
+          <a:ext cx="1838325" cy="581024"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1000">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>도중에 공정 중단을 원할 경우</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1000" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1000">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>STATE</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1000" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1000" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>값 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1000" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>WAIT </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1000" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>으로 변경</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1000">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
           </a:endParaRPr>
         </a:p>
       </xdr:txBody>
@@ -3988,41 +4504,41 @@
       </c>
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B30" s="28" t="s">
+      <c r="B30" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="C30" s="29"/>
-      <c r="D30" s="30"/>
+      <c r="C30" s="28"/>
+      <c r="D30" s="29"/>
       <c r="F30" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B31" s="37" t="s">
+      <c r="B31" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="C31" s="38"/>
-      <c r="D31" s="39"/>
+      <c r="C31" s="32"/>
+      <c r="D31" s="33"/>
       <c r="F31" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B32" s="28" t="s">
+      <c r="B32" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="C32" s="29"/>
-      <c r="D32" s="30"/>
+      <c r="C32" s="28"/>
+      <c r="D32" s="29"/>
       <c r="F32" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B33" s="40" t="s">
+      <c r="B33" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="C33" s="41"/>
-      <c r="D33" s="42"/>
+      <c r="C33" s="35"/>
+      <c r="D33" s="36"/>
       <c r="F33" t="s">
         <v>101</v>
       </c>
@@ -4065,95 +4581,95 @@
       </c>
     </row>
     <row r="44" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="28" t="s">
+      <c r="B44" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="C44" s="29"/>
-      <c r="D44" s="30"/>
+      <c r="C44" s="28"/>
+      <c r="D44" s="29"/>
     </row>
     <row r="45" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B45" s="28" t="s">
+      <c r="B45" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="C45" s="29"/>
-      <c r="D45" s="30"/>
+      <c r="C45" s="28"/>
+      <c r="D45" s="29"/>
     </row>
     <row r="47" spans="2:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B47" s="27" t="s">
+      <c r="B47" s="42" t="s">
         <v>115</v>
       </c>
-      <c r="C47" s="36"/>
-      <c r="D47" s="36"/>
+      <c r="C47" s="43"/>
+      <c r="D47" s="43"/>
     </row>
     <row r="48" spans="2:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B48" s="27"/>
-      <c r="C48" s="36"/>
-      <c r="D48" s="36"/>
+      <c r="B48" s="42"/>
+      <c r="C48" s="43"/>
+      <c r="D48" s="43"/>
     </row>
     <row r="49" spans="2:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B49" s="27"/>
-      <c r="C49" s="36"/>
-      <c r="D49" s="36"/>
+      <c r="B49" s="42"/>
+      <c r="C49" s="43"/>
+      <c r="D49" s="43"/>
     </row>
     <row r="50" spans="2:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B50" s="27"/>
-      <c r="C50" s="36"/>
-      <c r="D50" s="36"/>
+      <c r="B50" s="42"/>
+      <c r="C50" s="43"/>
+      <c r="D50" s="43"/>
     </row>
     <row r="51" spans="2:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B51" s="27"/>
-      <c r="C51" s="36"/>
-      <c r="D51" s="36"/>
+      <c r="B51" s="42"/>
+      <c r="C51" s="43"/>
+      <c r="D51" s="43"/>
     </row>
     <row r="52" spans="2:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B52" s="27"/>
-      <c r="C52" s="36"/>
-      <c r="D52" s="36"/>
+      <c r="B52" s="42"/>
+      <c r="C52" s="43"/>
+      <c r="D52" s="43"/>
     </row>
     <row r="53" spans="2:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B53" s="27"/>
-      <c r="C53" s="36"/>
-      <c r="D53" s="36"/>
+      <c r="B53" s="42"/>
+      <c r="C53" s="43"/>
+      <c r="D53" s="43"/>
     </row>
     <row r="54" spans="2:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B54" s="27"/>
-      <c r="C54" s="36"/>
-      <c r="D54" s="36"/>
+      <c r="B54" s="42"/>
+      <c r="C54" s="43"/>
+      <c r="D54" s="43"/>
     </row>
     <row r="55" spans="2:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B55" s="27"/>
-      <c r="C55" s="36"/>
-      <c r="D55" s="36"/>
+      <c r="B55" s="42"/>
+      <c r="C55" s="43"/>
+      <c r="D55" s="43"/>
     </row>
     <row r="56" spans="2:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B56" s="27"/>
-      <c r="C56" s="36"/>
-      <c r="D56" s="36"/>
+      <c r="B56" s="42"/>
+      <c r="C56" s="43"/>
+      <c r="D56" s="43"/>
     </row>
     <row r="57" spans="2:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B57" s="27"/>
-      <c r="C57" s="36"/>
-      <c r="D57" s="36"/>
+      <c r="B57" s="42"/>
+      <c r="C57" s="43"/>
+      <c r="D57" s="43"/>
     </row>
     <row r="58" spans="2:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B58" s="27"/>
-      <c r="C58" s="36"/>
-      <c r="D58" s="36"/>
+      <c r="B58" s="42"/>
+      <c r="C58" s="43"/>
+      <c r="D58" s="43"/>
     </row>
     <row r="59" spans="2:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B59" s="27"/>
-      <c r="C59" s="36"/>
-      <c r="D59" s="36"/>
+      <c r="B59" s="42"/>
+      <c r="C59" s="43"/>
+      <c r="D59" s="43"/>
     </row>
     <row r="60" spans="2:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B60" s="27"/>
-      <c r="C60" s="36"/>
-      <c r="D60" s="36"/>
+      <c r="B60" s="42"/>
+      <c r="C60" s="43"/>
+      <c r="D60" s="43"/>
     </row>
     <row r="61" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B61" s="36"/>
-      <c r="C61" s="36"/>
-      <c r="D61" s="36"/>
+      <c r="B61" s="43"/>
+      <c r="C61" s="43"/>
+      <c r="D61" s="43"/>
     </row>
     <row r="63" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B63" s="3" t="s">
@@ -4161,21 +4677,21 @@
       </c>
     </row>
     <row r="64" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B64" s="27" t="s">
+      <c r="B64" s="42" t="s">
         <v>117</v>
       </c>
-      <c r="C64" s="36"/>
-      <c r="D64" s="36"/>
+      <c r="C64" s="43"/>
+      <c r="D64" s="43"/>
     </row>
     <row r="65" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B65" s="36"/>
-      <c r="C65" s="36"/>
-      <c r="D65" s="36"/>
+      <c r="B65" s="43"/>
+      <c r="C65" s="43"/>
+      <c r="D65" s="43"/>
     </row>
     <row r="66" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B66" s="36"/>
-      <c r="C66" s="36"/>
-      <c r="D66" s="36"/>
+      <c r="B66" s="43"/>
+      <c r="C66" s="43"/>
+      <c r="D66" s="43"/>
     </row>
     <row r="68" spans="2:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B68" s="6" t="s">
@@ -4210,121 +4726,121 @@
       </c>
     </row>
     <row r="75" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B75" s="28" t="s">
+      <c r="B75" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="C75" s="29"/>
-      <c r="D75" s="30"/>
-      <c r="F75" s="31" t="s">
+      <c r="C75" s="28"/>
+      <c r="D75" s="29"/>
+      <c r="F75" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="G75" s="31"/>
-      <c r="H75" s="31"/>
-      <c r="I75" s="31"/>
+      <c r="G75" s="30"/>
+      <c r="H75" s="30"/>
+      <c r="I75" s="30"/>
     </row>
     <row r="76" spans="2:9" ht="28.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B76" s="33" t="s">
+      <c r="B76" s="41" t="s">
         <v>48</v>
       </c>
-      <c r="C76" s="34"/>
-      <c r="D76" s="35"/>
-      <c r="F76" s="32" t="s">
+      <c r="C76" s="38"/>
+      <c r="D76" s="39"/>
+      <c r="F76" s="40" t="s">
         <v>69</v>
       </c>
-      <c r="G76" s="32"/>
-      <c r="H76" s="32"/>
-      <c r="I76" s="32"/>
+      <c r="G76" s="40"/>
+      <c r="H76" s="40"/>
+      <c r="I76" s="40"/>
     </row>
     <row r="77" spans="2:9" ht="54" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B77" s="28" t="s">
+      <c r="B77" s="27" t="s">
         <v>49</v>
       </c>
-      <c r="C77" s="29"/>
-      <c r="D77" s="30"/>
-      <c r="F77" s="31" t="s">
+      <c r="C77" s="28"/>
+      <c r="D77" s="29"/>
+      <c r="F77" s="30" t="s">
         <v>56</v>
       </c>
-      <c r="G77" s="31"/>
-      <c r="H77" s="31"/>
-      <c r="I77" s="31"/>
+      <c r="G77" s="30"/>
+      <c r="H77" s="30"/>
+      <c r="I77" s="30"/>
     </row>
     <row r="78" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B78" s="28" t="s">
+      <c r="B78" s="27" t="s">
         <v>50</v>
       </c>
-      <c r="C78" s="29"/>
-      <c r="D78" s="30"/>
-      <c r="F78" s="32" t="s">
+      <c r="C78" s="28"/>
+      <c r="D78" s="29"/>
+      <c r="F78" s="40" t="s">
         <v>105</v>
       </c>
-      <c r="G78" s="32"/>
-      <c r="H78" s="32"/>
-      <c r="I78" s="32"/>
+      <c r="G78" s="40"/>
+      <c r="H78" s="40"/>
+      <c r="I78" s="40"/>
     </row>
     <row r="79" spans="2:9" ht="31.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B79" s="28" t="s">
+      <c r="B79" s="27" t="s">
         <v>47</v>
       </c>
-      <c r="C79" s="29"/>
-      <c r="D79" s="30"/>
-      <c r="F79" s="32" t="s">
+      <c r="C79" s="28"/>
+      <c r="D79" s="29"/>
+      <c r="F79" s="40" t="s">
         <v>106</v>
       </c>
-      <c r="G79" s="32"/>
-      <c r="H79" s="32"/>
-      <c r="I79" s="32"/>
+      <c r="G79" s="40"/>
+      <c r="H79" s="40"/>
+      <c r="I79" s="40"/>
     </row>
     <row r="80" spans="2:9" ht="51.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B80" s="43" t="s">
+      <c r="B80" s="37" t="s">
         <v>108</v>
       </c>
-      <c r="C80" s="34"/>
-      <c r="D80" s="35"/>
-      <c r="F80" s="31" t="s">
+      <c r="C80" s="38"/>
+      <c r="D80" s="39"/>
+      <c r="F80" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="G80" s="31"/>
-      <c r="H80" s="31"/>
-      <c r="I80" s="31"/>
+      <c r="G80" s="30"/>
+      <c r="H80" s="30"/>
+      <c r="I80" s="30"/>
     </row>
     <row r="81" spans="2:9" ht="60" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B81" s="28" t="s">
+      <c r="B81" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="C81" s="29"/>
-      <c r="D81" s="30"/>
-      <c r="F81" s="31" t="s">
+      <c r="C81" s="28"/>
+      <c r="D81" s="29"/>
+      <c r="F81" s="30" t="s">
         <v>52</v>
       </c>
-      <c r="G81" s="31"/>
-      <c r="H81" s="31"/>
-      <c r="I81" s="31"/>
+      <c r="G81" s="30"/>
+      <c r="H81" s="30"/>
+      <c r="I81" s="30"/>
     </row>
     <row r="82" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B82" s="28" t="s">
+      <c r="B82" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="C82" s="29"/>
-      <c r="D82" s="30"/>
-      <c r="F82" s="31" t="s">
+      <c r="C82" s="28"/>
+      <c r="D82" s="29"/>
+      <c r="F82" s="30" t="s">
         <v>54</v>
       </c>
-      <c r="G82" s="31"/>
-      <c r="H82" s="31"/>
-      <c r="I82" s="31"/>
+      <c r="G82" s="30"/>
+      <c r="H82" s="30"/>
+      <c r="I82" s="30"/>
     </row>
     <row r="83" spans="2:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B83" s="28" t="s">
+      <c r="B83" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="C83" s="29"/>
-      <c r="D83" s="30"/>
-      <c r="F83" s="31" t="s">
+      <c r="C83" s="28"/>
+      <c r="D83" s="29"/>
+      <c r="F83" s="30" t="s">
         <v>61</v>
       </c>
-      <c r="G83" s="31"/>
-      <c r="H83" s="31"/>
-      <c r="I83" s="31"/>
+      <c r="G83" s="30"/>
+      <c r="H83" s="30"/>
+      <c r="I83" s="30"/>
     </row>
     <row r="85" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B85" s="16" t="s">
@@ -4442,58 +4958,58 @@
       </c>
     </row>
     <row r="97" spans="2:4" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B97" s="27" t="s">
+      <c r="B97" s="42" t="s">
         <v>32</v>
       </c>
-      <c r="C97" s="27"/>
-      <c r="D97" s="27"/>
+      <c r="C97" s="42"/>
+      <c r="D97" s="42"/>
     </row>
     <row r="98" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B98" s="27"/>
-      <c r="C98" s="27"/>
-      <c r="D98" s="27"/>
+      <c r="B98" s="42"/>
+      <c r="C98" s="42"/>
+      <c r="D98" s="42"/>
     </row>
     <row r="99" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B99" s="27"/>
-      <c r="C99" s="27"/>
-      <c r="D99" s="27"/>
+      <c r="B99" s="42"/>
+      <c r="C99" s="42"/>
+      <c r="D99" s="42"/>
     </row>
     <row r="100" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B100" s="27"/>
-      <c r="C100" s="27"/>
-      <c r="D100" s="27"/>
+      <c r="B100" s="42"/>
+      <c r="C100" s="42"/>
+      <c r="D100" s="42"/>
     </row>
     <row r="102" spans="2:4" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B102" s="31" t="s">
+      <c r="B102" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="C102" s="31"/>
-      <c r="D102" s="31"/>
+      <c r="C102" s="30"/>
+      <c r="D102" s="30"/>
     </row>
     <row r="103" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B103" s="31"/>
-      <c r="C103" s="31"/>
-      <c r="D103" s="31"/>
+      <c r="B103" s="30"/>
+      <c r="C103" s="30"/>
+      <c r="D103" s="30"/>
     </row>
     <row r="104" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B104" s="31"/>
-      <c r="C104" s="31"/>
-      <c r="D104" s="31"/>
+      <c r="B104" s="30"/>
+      <c r="C104" s="30"/>
+      <c r="D104" s="30"/>
     </row>
     <row r="105" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B105" s="31"/>
-      <c r="C105" s="31"/>
-      <c r="D105" s="31"/>
+      <c r="B105" s="30"/>
+      <c r="C105" s="30"/>
+      <c r="D105" s="30"/>
     </row>
     <row r="106" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B106" s="31"/>
-      <c r="C106" s="31"/>
-      <c r="D106" s="31"/>
+      <c r="B106" s="30"/>
+      <c r="C106" s="30"/>
+      <c r="D106" s="30"/>
     </row>
     <row r="107" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B107" s="31"/>
-      <c r="C107" s="31"/>
-      <c r="D107" s="31"/>
+      <c r="B107" s="30"/>
+      <c r="C107" s="30"/>
+      <c r="D107" s="30"/>
     </row>
     <row r="109" spans="2:4" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B109" s="6" t="s">
@@ -4510,106 +5026,106 @@
       </c>
     </row>
     <row r="113" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B113" s="28" t="s">
+      <c r="B113" s="27" t="s">
         <v>73</v>
       </c>
-      <c r="C113" s="29"/>
-      <c r="D113" s="30"/>
+      <c r="C113" s="28"/>
+      <c r="D113" s="29"/>
       <c r="F113" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="114" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B114" s="28" t="s">
+      <c r="B114" s="27" t="s">
         <v>65</v>
       </c>
-      <c r="C114" s="29"/>
-      <c r="D114" s="30"/>
+      <c r="C114" s="28"/>
+      <c r="D114" s="29"/>
       <c r="F114" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="115" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B115" s="28" t="s">
+      <c r="B115" s="27" t="s">
         <v>66</v>
       </c>
-      <c r="C115" s="29"/>
-      <c r="D115" s="30"/>
+      <c r="C115" s="28"/>
+      <c r="D115" s="29"/>
       <c r="F115" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="116" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B116" s="28" t="s">
+      <c r="B116" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="C116" s="29"/>
-      <c r="D116" s="30"/>
-      <c r="F116" s="32" t="s">
+      <c r="C116" s="28"/>
+      <c r="D116" s="29"/>
+      <c r="F116" s="40" t="s">
         <v>69</v>
       </c>
-      <c r="G116" s="32"/>
-      <c r="H116" s="32"/>
-      <c r="I116" s="32"/>
+      <c r="G116" s="40"/>
+      <c r="H116" s="40"/>
+      <c r="I116" s="40"/>
     </row>
     <row r="117" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B117" s="28" t="s">
+      <c r="B117" s="27" t="s">
         <v>49</v>
       </c>
-      <c r="C117" s="29"/>
-      <c r="D117" s="30"/>
-      <c r="F117" s="31" t="s">
+      <c r="C117" s="28"/>
+      <c r="D117" s="29"/>
+      <c r="F117" s="30" t="s">
         <v>56</v>
       </c>
-      <c r="G117" s="31"/>
-      <c r="H117" s="31"/>
-      <c r="I117" s="31"/>
+      <c r="G117" s="30"/>
+      <c r="H117" s="30"/>
+      <c r="I117" s="30"/>
     </row>
     <row r="118" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B118" s="28" t="s">
+      <c r="B118" s="27" t="s">
         <v>50</v>
       </c>
-      <c r="C118" s="29"/>
-      <c r="D118" s="30"/>
-      <c r="F118" s="32" t="s">
+      <c r="C118" s="28"/>
+      <c r="D118" s="29"/>
+      <c r="F118" s="40" t="s">
         <v>51</v>
       </c>
-      <c r="G118" s="32"/>
-      <c r="H118" s="32"/>
-      <c r="I118" s="32"/>
+      <c r="G118" s="40"/>
+      <c r="H118" s="40"/>
+      <c r="I118" s="40"/>
     </row>
     <row r="119" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B119" s="28" t="s">
+      <c r="B119" s="27" t="s">
         <v>47</v>
       </c>
-      <c r="C119" s="29"/>
-      <c r="D119" s="30"/>
-      <c r="F119" s="32" t="s">
+      <c r="C119" s="28"/>
+      <c r="D119" s="29"/>
+      <c r="F119" s="40" t="s">
         <v>60</v>
       </c>
-      <c r="G119" s="32"/>
-      <c r="H119" s="32"/>
-      <c r="I119" s="32"/>
+      <c r="G119" s="40"/>
+      <c r="H119" s="40"/>
+      <c r="I119" s="40"/>
     </row>
     <row r="120" spans="2:9" ht="85.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B120" s="28" t="s">
+      <c r="B120" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="C120" s="29"/>
-      <c r="D120" s="30"/>
-      <c r="F120" s="31" t="s">
+      <c r="C120" s="28"/>
+      <c r="D120" s="29"/>
+      <c r="F120" s="30" t="s">
         <v>70</v>
       </c>
-      <c r="G120" s="31"/>
-      <c r="H120" s="31"/>
-      <c r="I120" s="31"/>
+      <c r="G120" s="30"/>
+      <c r="H120" s="30"/>
+      <c r="I120" s="30"/>
     </row>
     <row r="121" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B121" s="28" t="s">
+      <c r="B121" s="27" t="s">
         <v>72</v>
       </c>
-      <c r="C121" s="29"/>
-      <c r="D121" s="30"/>
+      <c r="C121" s="28"/>
+      <c r="D121" s="29"/>
       <c r="F121" t="s">
         <v>71</v>
       </c>
@@ -4726,18 +5242,22 @@
     </row>
   </sheetData>
   <mergeCells count="42">
-    <mergeCell ref="B81:D81"/>
-    <mergeCell ref="B82:D82"/>
-    <mergeCell ref="B83:D83"/>
-    <mergeCell ref="F80:I80"/>
-    <mergeCell ref="F81:I81"/>
-    <mergeCell ref="F82:I82"/>
-    <mergeCell ref="F83:I83"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="B80:D80"/>
+    <mergeCell ref="B97:D100"/>
+    <mergeCell ref="B116:D116"/>
+    <mergeCell ref="B115:D115"/>
+    <mergeCell ref="B114:D114"/>
+    <mergeCell ref="B113:D113"/>
+    <mergeCell ref="B102:D107"/>
+    <mergeCell ref="B121:D121"/>
+    <mergeCell ref="B120:D120"/>
+    <mergeCell ref="B119:D119"/>
+    <mergeCell ref="B118:D118"/>
+    <mergeCell ref="B117:D117"/>
+    <mergeCell ref="F117:I117"/>
+    <mergeCell ref="F118:I118"/>
+    <mergeCell ref="F119:I119"/>
+    <mergeCell ref="F120:I120"/>
+    <mergeCell ref="F116:I116"/>
     <mergeCell ref="F79:I79"/>
     <mergeCell ref="B44:D44"/>
     <mergeCell ref="B45:D45"/>
@@ -4752,22 +5272,18 @@
     <mergeCell ref="F76:I76"/>
     <mergeCell ref="F77:I77"/>
     <mergeCell ref="F78:I78"/>
-    <mergeCell ref="F117:I117"/>
-    <mergeCell ref="F118:I118"/>
-    <mergeCell ref="F119:I119"/>
-    <mergeCell ref="F120:I120"/>
-    <mergeCell ref="F116:I116"/>
-    <mergeCell ref="B121:D121"/>
-    <mergeCell ref="B120:D120"/>
-    <mergeCell ref="B119:D119"/>
-    <mergeCell ref="B118:D118"/>
-    <mergeCell ref="B117:D117"/>
-    <mergeCell ref="B97:D100"/>
-    <mergeCell ref="B116:D116"/>
-    <mergeCell ref="B115:D115"/>
-    <mergeCell ref="B114:D114"/>
-    <mergeCell ref="B113:D113"/>
-    <mergeCell ref="B102:D107"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="B80:D80"/>
+    <mergeCell ref="B81:D81"/>
+    <mergeCell ref="B82:D82"/>
+    <mergeCell ref="B83:D83"/>
+    <mergeCell ref="F80:I80"/>
+    <mergeCell ref="F81:I81"/>
+    <mergeCell ref="F82:I82"/>
+    <mergeCell ref="F83:I83"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4780,8 +5296,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:U54"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="K39" sqref="K39"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="L23" sqref="L23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
